--- a/Variables and Regression Results.xlsx
+++ b/Variables and Regression Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Proyectos GitHub\SoftwareReuse_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C54DD33-B39F-4BAB-A800-72B4DB77EFE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA118EE6-2958-42F8-9B42-C60344BFEE09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="423" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsR" sheetId="9" r:id="rId1"/>
@@ -1988,9 +1988,6 @@
     <t>Grande, mediana, pequeña, startups, microenterprise</t>
   </si>
   <si>
-    <t>H05</t>
-  </si>
-  <si>
     <t>Software organization and team size</t>
   </si>
   <si>
@@ -2036,60 +2033,30 @@
     <t>Logística</t>
   </si>
   <si>
-    <t>H10</t>
-  </si>
-  <si>
     <t>Manufactura</t>
   </si>
   <si>
-    <t>H11</t>
-  </si>
-  <si>
     <t>Minería</t>
   </si>
   <si>
-    <t>H12</t>
-  </si>
-  <si>
     <t>Salud y seguridad social</t>
   </si>
   <si>
-    <t>H13</t>
-  </si>
-  <si>
     <t>Seguros</t>
   </si>
   <si>
-    <t>H14</t>
-  </si>
-  <si>
     <t>Servicios de gestión empresarial</t>
   </si>
   <si>
-    <t>H15</t>
-  </si>
-  <si>
     <t>Tecnologías de información y comunicaciones (TIC)</t>
   </si>
   <si>
-    <t>H16</t>
-  </si>
-  <si>
     <t>Telecomunicaciones</t>
   </si>
   <si>
-    <t>H17</t>
-  </si>
-  <si>
     <t>Turismo y entretenimiento</t>
   </si>
   <si>
-    <t>H18</t>
-  </si>
-  <si>
-    <t>H19</t>
-  </si>
-  <si>
     <t>Ninguno</t>
   </si>
   <si>
@@ -2102,9 +2069,6 @@
     <t>Aplicaciones para dispositivos móviles</t>
   </si>
   <si>
-    <t>H02</t>
-  </si>
-  <si>
     <t>Kind of software developed</t>
   </si>
   <si>
@@ -2147,9 +2111,6 @@
     <t>Todos los miembros del equipo de software tienen mínimo nivel Senior</t>
   </si>
   <si>
-    <t>H06</t>
-  </si>
-  <si>
     <t>Project team experience</t>
   </si>
   <si>
@@ -2165,9 +2126,6 @@
     <t>Modelo en V</t>
   </si>
   <si>
-    <t>H23</t>
-  </si>
-  <si>
     <t>Software development approach</t>
   </si>
   <si>
@@ -2216,9 +2174,6 @@
     <t>Programación reactiva</t>
   </si>
   <si>
-    <t>H24</t>
-  </si>
-  <si>
     <t>Programming language</t>
   </si>
   <si>
@@ -2228,9 +2183,6 @@
     <t>Legislación</t>
   </si>
   <si>
-    <t>H07</t>
-  </si>
-  <si>
     <t>Legal problems</t>
   </si>
   <si>
@@ -2243,18 +2195,12 @@
     <t>Economica</t>
   </si>
   <si>
-    <t>H08</t>
-  </si>
-  <si>
     <t>Economic feasibility</t>
   </si>
   <si>
     <t>Reconocimiento</t>
   </si>
   <si>
-    <t>H09</t>
-  </si>
-  <si>
     <t>Reward and incentives</t>
   </si>
   <si>
@@ -2267,9 +2213,6 @@
     <t>Herramienta</t>
   </si>
   <si>
-    <t>H26</t>
-  </si>
-  <si>
     <t>CASE Tools usage</t>
   </si>
   <si>
@@ -2342,9 +2285,6 @@
     <t>Artefactos son desarrollados desde cero</t>
   </si>
   <si>
-    <t>H21</t>
-  </si>
-  <si>
     <t>Origin of the reused assets</t>
   </si>
   <si>
@@ -2363,9 +2303,6 @@
     <t>Artefactos reutilizables son desarrollados antes de que un proyecto los necesite.</t>
   </si>
   <si>
-    <t>H20</t>
-  </si>
-  <si>
     <t>Previous development of reusable assets</t>
   </si>
   <si>
@@ -2378,9 +2315,6 @@
     <t>Rol</t>
   </si>
   <si>
-    <t>H22</t>
-  </si>
-  <si>
     <t>Specific function in the software reuse process</t>
   </si>
   <si>
@@ -2399,15 +2333,9 @@
     <t>Repository</t>
   </si>
   <si>
-    <t>H25</t>
-  </si>
-  <si>
     <t>Repository systems usage</t>
   </si>
   <si>
-    <t>H03</t>
-  </si>
-  <si>
     <t>Product family approach</t>
   </si>
   <si>
@@ -2417,15 +2345,9 @@
     <t>Analisis de mercado</t>
   </si>
   <si>
-    <t>H04</t>
-  </si>
-  <si>
     <t>Domain Engineering</t>
   </si>
   <si>
-    <t>H01</t>
-  </si>
-  <si>
     <t>STARTUPS</t>
   </si>
   <si>
@@ -4097,9 +4019,6 @@
     <t>Answer_Spanish</t>
   </si>
   <si>
-    <t>Hipotheses</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -4383,6 +4302,87 @@
   </si>
   <si>
     <t>Q14</t>
+  </si>
+  <si>
+    <t>Research Question</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>R08</t>
+  </si>
+  <si>
+    <t>R09</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
   </si>
 </sst>
 </file>
@@ -4869,41 +4869,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="96">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -6094,6 +6059,17 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6101,6 +6077,30 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6230,10 +6230,10 @@
     <tableColumn id="10" xr3:uid="{5A814A7B-8A13-4653-9F39-CB77C7B4C7B9}" name="id" dataDxfId="93"/>
     <tableColumn id="2" xr3:uid="{B2092AB8-622D-435C-A93D-D582DBFD332F}" name="Variables" dataDxfId="92"/>
     <tableColumn id="8" xr3:uid="{00BA77F2-3DF4-409B-97FB-BAFD10ADB6E3}" name="Answer_Spanish" dataDxfId="91"/>
-    <tableColumn id="1" xr3:uid="{D289C4FE-AE32-4E32-9E6F-F9A6F1288A34}" name="Answer_English" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E55A4129-42B6-4140-B297-499760CCFC37}" name="Hipotheses" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{351EFE2E-4784-4003-8133-A84365D3B408}" name="# Factor" dataDxfId="89"/>
-    <tableColumn id="12" xr3:uid="{5D8CDF4C-5473-4E3E-A92F-82E1F6D0BAE8}" name="Result Model M4 " dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{D289C4FE-AE32-4E32-9E6F-F9A6F1288A34}" name="Answer_English" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{E55A4129-42B6-4140-B297-499760CCFC37}" name="Research Question" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{351EFE2E-4784-4003-8133-A84365D3B408}" name="# Factor" dataDxfId="88"/>
+    <tableColumn id="12" xr3:uid="{5D8CDF4C-5473-4E3E-A92F-82E1F6D0BAE8}" name="Result Model M4 " dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6252,7 +6252,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Total" dataDxfId="67">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Total" dataDxfId="64">
       <calculatedColumnFormula>+SUM(Table9[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6261,7 +6261,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="A93:G97" totalsRowShown="0" headerRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table10" displayName="Table10" ref="A93:G97" totalsRowShown="0" headerRowDxfId="63">
   <autoFilter ref="A93:G97" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A94:G97">
     <sortCondition descending="1" ref="G93:G97"/>
@@ -6273,7 +6273,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Total" dataDxfId="65">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Total" dataDxfId="62">
       <calculatedColumnFormula>+SUM(Table10[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6282,19 +6282,19 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="A99:G103" totalsRowShown="0" headerRowDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table11" displayName="Table11" ref="A99:G103" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="A99:G103" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A100:G103">
     <sortCondition descending="1" ref="G99:G103"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Q9" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Q9" dataDxfId="60"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Limited"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Moderate"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Total" dataDxfId="62">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Total" dataDxfId="59">
       <calculatedColumnFormula>+SUM(Table11[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6303,7 +6303,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A105:G110" totalsRowShown="0" headerRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table12" displayName="Table12" ref="A105:G110" totalsRowShown="0" headerRowDxfId="58">
   <autoFilter ref="A105:G110" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A106:G110">
     <sortCondition descending="1" ref="G105:G110"/>
@@ -6315,7 +6315,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Total" dataDxfId="60">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Total" dataDxfId="57">
       <calculatedColumnFormula>+SUM(Table12[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6324,7 +6324,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table13" displayName="Table13" ref="A112:G117" totalsRowShown="0" headerRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table13" displayName="Table13" ref="A112:G117" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A112:G117" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A113:G117">
     <sortCondition descending="1" ref="G112:G117"/>
@@ -6336,7 +6336,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Total" dataDxfId="58">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="Total" dataDxfId="55">
       <calculatedColumnFormula>+SUM(Table13[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6345,7 +6345,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table14" displayName="Table14" ref="A119:G124" totalsRowShown="0" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table14" displayName="Table14" ref="A119:G124" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A119:G124" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A120:G124">
     <sortCondition descending="1" ref="G119:G124"/>
@@ -6357,7 +6357,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Total" dataDxfId="56">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="Total" dataDxfId="53">
       <calculatedColumnFormula>+SUM(Table14[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6366,7 +6366,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table15" displayName="Table15" ref="A126:G131" totalsRowShown="0" headerRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table15" displayName="Table15" ref="A126:G131" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="A126:G131" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:G131">
     <sortCondition descending="1" ref="G126:G131"/>
@@ -6378,7 +6378,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Total" dataDxfId="54">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Total" dataDxfId="51">
       <calculatedColumnFormula>+SUM(Table15[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6387,19 +6387,19 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table16" displayName="Table16" ref="A133:G137" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table16" displayName="Table16" ref="A133:G137" totalsRowShown="0" headerRowDxfId="50">
   <autoFilter ref="A133:G137" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A134:G137">
     <sortCondition descending="1" ref="G133:G137"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Q24" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Q24" dataDxfId="49"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Limited"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Moderate"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Total" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Total" dataDxfId="48">
       <calculatedColumnFormula>+SUM(Table16[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6408,7 +6408,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table17" displayName="Table17" ref="A139:G147" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table17" displayName="Table17" ref="A139:G147" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A139:G147" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A140:G147">
     <sortCondition descending="1" ref="G139:G147"/>
@@ -6420,7 +6420,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Total" dataDxfId="49">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Total" dataDxfId="46">
       <calculatedColumnFormula>+SUM(Table17[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6429,7 +6429,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table18" displayName="Table18" ref="A149:G154" totalsRowShown="0" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table18" displayName="Table18" ref="A149:G154" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A149:G154" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A150:G154">
     <sortCondition descending="1" ref="G149:G154"/>
@@ -6441,7 +6441,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Total" dataDxfId="47">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Total" dataDxfId="44">
       <calculatedColumnFormula>+SUM(Table18[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6461,8 +6461,8 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Moderate"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Strong"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Substancial" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Substancial" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Total" dataDxfId="85">
       <calculatedColumnFormula>+SUM(Tabla1[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6471,7 +6471,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="A156:G161" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table19" displayName="Table19" ref="A156:G161" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="A156:G161" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A157:G161">
     <sortCondition descending="1" ref="G156:G161"/>
@@ -6492,7 +6492,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table21" displayName="Table21" ref="A163:G168" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table21" displayName="Table21" ref="A163:G168" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A163:G168" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A164:G168">
     <sortCondition descending="1" ref="G163:G168"/>
@@ -6504,7 +6504,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Total" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Total" dataDxfId="41">
       <calculatedColumnFormula>+SUM(Table21[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6513,7 +6513,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table24" displayName="Table24" ref="A170:G184" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table24" displayName="Table24" ref="A170:G184" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A170:G184" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A171:G184">
     <sortCondition descending="1" ref="G170:G184"/>
@@ -6525,7 +6525,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Total" dataDxfId="42">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Total" dataDxfId="39">
       <calculatedColumnFormula>+SUM(Table24[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6534,7 +6534,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table25" displayName="Table25" ref="A186:G200" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table25" displayName="Table25" ref="A186:G200" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A186:G200" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A187:G200">
     <sortCondition descending="1" ref="G186:G200"/>
@@ -6546,7 +6546,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Total" dataDxfId="40">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Total" dataDxfId="37">
       <calculatedColumnFormula>+SUM(Table25[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6555,7 +6555,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table26" displayName="Table26" ref="A202:G207" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table26" displayName="Table26" ref="A202:G207" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A202:G207" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A203:G207">
     <sortCondition descending="1" ref="G202:G207"/>
@@ -6567,7 +6567,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="Total" dataDxfId="38">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="Total" dataDxfId="35">
       <calculatedColumnFormula>+SUM(Table26[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6576,7 +6576,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table27" displayName="Table27" ref="A210:G215" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table27" displayName="Table27" ref="A210:G215" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A210:G215" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A211:G215">
     <sortCondition descending="1" ref="G210:G215"/>
@@ -6588,7 +6588,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="Total" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="Total" dataDxfId="33">
       <calculatedColumnFormula>+SUM(Table27[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6597,7 +6597,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table28" displayName="Table28" ref="A218:G223" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table28" displayName="Table28" ref="A218:G223" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="A218:G223" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A219:G223">
     <sortCondition descending="1" ref="G218:G223"/>
@@ -6609,7 +6609,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Total" dataDxfId="34">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Total" dataDxfId="31">
       <calculatedColumnFormula>+SUM(Table28[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6618,7 +6618,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table29" displayName="Table29" ref="A226:G231" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table29" displayName="Table29" ref="A226:G231" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A226:G231" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A227:G231">
     <sortCondition descending="1" ref="G226:G231"/>
@@ -6630,7 +6630,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1900-000007000000}" name="Total" dataDxfId="32">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1900-000007000000}" name="Total" dataDxfId="29">
       <calculatedColumnFormula>+SUM(Table29[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6639,7 +6639,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table30" displayName="Table30" ref="A234:G239" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table30" displayName="Table30" ref="A234:G239" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A234:G239" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A235:G239">
     <sortCondition descending="1" ref="G234:G239"/>
@@ -6651,7 +6651,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="Total" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="Total" dataDxfId="27">
       <calculatedColumnFormula>+SUM(Table30[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6660,7 +6660,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table31" displayName="Table31" ref="A242:G247" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table31" displayName="Table31" ref="A242:G247" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="A242:G247" xr:uid="{00000000-0009-0000-0100-00001F000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A243:G247">
     <sortCondition descending="1" ref="G242:G247"/>
@@ -6672,7 +6672,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1B00-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1B00-000007000000}" name="Total" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1B00-000007000000}" name="Total" dataDxfId="25">
       <calculatedColumnFormula>+SUM(Table31[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6681,19 +6681,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A16:G36" totalsRowShown="0" headerRowDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A16:G36" totalsRowShown="0" headerRowDxfId="84">
   <autoFilter ref="A16:G36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:G36">
     <sortCondition descending="1" ref="G16:G36"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Q4" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Q4" dataDxfId="83"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Limited"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Moderate"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="No success"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Strong"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Substancial"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Total" dataDxfId="85">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Total" dataDxfId="82">
       <calculatedColumnFormula>+SUM(Table2[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6702,7 +6702,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Table32" displayName="Table32" ref="A249:G252" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Table32" displayName="Table32" ref="A249:G252" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="A249:G252" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="Q25"/>
@@ -6711,7 +6711,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="Total" dataDxfId="26">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="Total" dataDxfId="23">
       <calculatedColumnFormula>+SUM(Table32[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6720,7 +6720,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table34" displayName="Table34" ref="A255:G260" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table34" displayName="Table34" ref="A255:G260" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A255:G260" xr:uid="{00000000-0009-0000-0100-000022000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A256:G260">
     <sortCondition descending="1" ref="G255:G260"/>
@@ -6732,7 +6732,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="Total" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="Total" dataDxfId="21">
       <calculatedColumnFormula>+SUM(Table34[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6741,7 +6741,7 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Table38" displayName="Table38" ref="A263:G280" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Table38" displayName="Table38" ref="A263:G280" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A263:G280" xr:uid="{00000000-0009-0000-0100-000026000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A264:G280">
     <sortCondition descending="1" ref="G263:G280"/>
@@ -6753,7 +6753,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-2100-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-2100-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-2100-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2100-000007000000}" name="Total" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2100-000007000000}" name="Total" dataDxfId="19">
       <calculatedColumnFormula>+SUM(Table38[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6762,7 +6762,7 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF22000000}" name="Table39" displayName="Table39" ref="A282:G290" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF22000000}" name="Table39" displayName="Table39" ref="A282:G290" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A282:G290" xr:uid="{00000000-0009-0000-0100-000027000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A283:G290">
     <sortCondition descending="1" ref="G282:G290"/>
@@ -6774,7 +6774,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-2200-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-2200-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-2200-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2200-000007000000}" name="Total" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2200-000007000000}" name="Total" dataDxfId="17">
       <calculatedColumnFormula>+SUM(Table39[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6795,7 +6795,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-2300-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-2300-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-2300-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2300-000007000000}" name="Total" dataDxfId="19">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2300-000007000000}" name="Total" dataDxfId="16">
       <calculatedColumnFormula>+SUM(Table40[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6816,7 +6816,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-2400-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-2400-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-2400-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2400-000007000000}" name="Total" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2400-000007000000}" name="Total" dataDxfId="15">
       <calculatedColumnFormula>+SUM(Table41[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6825,7 +6825,7 @@
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{00000000-000C-0000-FFFF-FFFF25000000}" name="Table42" displayName="Table42" ref="A323:G328" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{00000000-000C-0000-FFFF-FFFF25000000}" name="Table42" displayName="Table42" ref="A323:G328" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A323:G328" xr:uid="{00000000-0009-0000-0100-00002A000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A324:G328">
     <sortCondition descending="1" ref="G323:G328"/>
@@ -6837,7 +6837,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-2500-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-2500-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-2500-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2500-000007000000}" name="Total" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2500-000007000000}" name="Total" dataDxfId="13">
       <calculatedColumnFormula>+SUM(Table42[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6846,7 +6846,7 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{00000000-000C-0000-FFFF-FFFF26000000}" name="Table43" displayName="Table43" ref="A330:G335" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{00000000-000C-0000-FFFF-FFFF26000000}" name="Table43" displayName="Table43" ref="A330:G335" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A330:G335" xr:uid="{00000000-0009-0000-0100-00002B000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A331:G335">
     <sortCondition descending="1" ref="G330:G335"/>
@@ -6858,7 +6858,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-2600-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-2600-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-2600-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2600-000007000000}" name="Total" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2600-000007000000}" name="Total" dataDxfId="11">
       <calculatedColumnFormula>+SUM(Table43[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6867,7 +6867,7 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{00000000-000C-0000-FFFF-FFFF27000000}" name="Tabla44" displayName="Tabla44" ref="A337:G343" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{00000000-000C-0000-FFFF-FFFF27000000}" name="Tabla44" displayName="Tabla44" ref="A337:G343" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A337:G343" xr:uid="{00000000-0009-0000-0100-00002C000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A338:G343">
     <sortCondition descending="1" ref="G337:G343"/>
@@ -6879,7 +6879,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-2700-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-2700-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-2700-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2700-000007000000}" name="Total" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2700-000007000000}" name="Total" dataDxfId="9">
       <calculatedColumnFormula>+SUM(Tabla44[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6900,7 +6900,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-2800-000004000000}" name="Neutral"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-2800-000005000000}" name="Agree"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-2800-000006000000}" name="Stronglyagree"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2800-000007000000}" name="Column1" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2800-000007000000}" name="Column1" dataDxfId="8">
       <calculatedColumnFormula>+SUM(Table20[[#This Row],[Agree]:[Stronglyagree]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6909,19 +6909,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A38:G41" totalsRowShown="0" headerRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A38:G41" totalsRowShown="0" headerRowDxfId="81">
   <autoFilter ref="A38:G41" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:G41">
     <sortCondition descending="1" ref="G38:G41"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Q30" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Q30" dataDxfId="80"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Limited"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Moderate"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Total" dataDxfId="82">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Total" dataDxfId="79">
       <calculatedColumnFormula>+SUM(Table3[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6930,19 +6930,19 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF29000000}" name="Table22" displayName="Table22" ref="A17:G22" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF29000000}" name="Table22" displayName="Table22" ref="A17:G22" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A17:G22" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:G22">
     <sortCondition descending="1" ref="G17:G22"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2900-000001000000}" name="Q16.3" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2900-000001000000}" name="Q16.3" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-2900-000002000000}" name="Stronglydisagree"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2900-000003000000}" name="Disagree"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-2900-000004000000}" name="Neutral"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-2900-000005000000}" name="Agree"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-2900-000006000000}" name="Stronglyagree"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2900-000007000000}" name="Column1" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2900-000007000000}" name="Column1" dataDxfId="4">
       <calculatedColumnFormula>+SUM(Table22[[#This Row],[Agree]:[Stronglyagree]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6951,19 +6951,19 @@
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF2A000000}" name="Table23" displayName="Table23" ref="A24:G29" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF2A000000}" name="Table23" displayName="Table23" ref="A24:G29" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A24:G29" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:G29">
     <sortCondition descending="1" ref="G24:G29"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2A00-000001000000}" name="Q27" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2A00-000001000000}" name="Q27" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-2A00-000002000000}" name="Stronglydisagree"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-2A00-000003000000}" name="Disagree"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-2A00-000004000000}" name="Neutral"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-2A00-000005000000}" name="Agree"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-2A00-000006000000}" name="Stronglyagree"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2A00-000007000000}" name="Column1" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2A00-000007000000}" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>+SUM(Table23[[#This Row],[Agree]:[Stronglyagree]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6988,19 +6988,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A43:G48" totalsRowShown="0" headerRowDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A43:G48" totalsRowShown="0" headerRowDxfId="78">
   <autoFilter ref="A43:G48" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:G48">
     <sortCondition descending="1" ref="G43:G48"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Q31.1" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Q31.1" dataDxfId="77"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Limited"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Moderate"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" dataDxfId="79">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" dataDxfId="76">
       <calculatedColumnFormula>+SUM(Table4[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7009,19 +7009,19 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A50:G55" totalsRowShown="0" headerRowDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A50:G55" totalsRowShown="0" headerRowDxfId="75">
   <autoFilter ref="A50:G55" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:G55">
     <sortCondition descending="1" ref="G50:G55"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Q31.2" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Q31.2" dataDxfId="74"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Limited"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Moderate"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Total" dataDxfId="76">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Total" dataDxfId="73">
       <calculatedColumnFormula>+SUM(Table5[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7030,19 +7030,19 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A57:G62" totalsRowShown="0" headerRowDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A57:G62" totalsRowShown="0" headerRowDxfId="72">
   <autoFilter ref="A57:G62" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A58:G62">
     <sortCondition descending="1" ref="G57:G62"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Q31.3" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Q31.3" dataDxfId="71"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Limited"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Moderate"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Total" dataDxfId="73">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Total" dataDxfId="70">
       <calculatedColumnFormula>+SUM(Table6[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7051,13 +7051,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A64:G69" totalsRowShown="0" headerRowDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A64:G69" totalsRowShown="0" headerRowDxfId="69">
   <autoFilter ref="A64:G69" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:G69">
     <sortCondition descending="1" ref="G64:G69"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Q3" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Q3" dataDxfId="68"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Limited"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Moderate"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="No success"/>
@@ -7072,19 +7072,19 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A71:G75" totalsRowShown="0" headerRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="A71:G75" totalsRowShown="0" headerRowDxfId="67">
   <autoFilter ref="A71:G75" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A72:G75">
     <sortCondition descending="1" ref="G71:G75"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Q8" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Q8" dataDxfId="66"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Limited"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Moderate"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="No success"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Strong"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Substancial"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Total" dataDxfId="68">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Total" dataDxfId="65">
       <calculatedColumnFormula>+SUM(Table8[[#This Row],[Strong]:[Substancial]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7391,8 +7391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5D8EAB-9101-404E-BC22-F0EA778BF3C0}">
   <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7414,22 +7414,22 @@
         <v>647</v>
       </c>
       <c r="B1" t="s">
-        <v>1354</v>
+        <v>1327</v>
       </c>
       <c r="C1" t="s">
-        <v>1352</v>
+        <v>1326</v>
       </c>
       <c r="D1" t="s">
-        <v>1355</v>
+        <v>1328</v>
       </c>
       <c r="E1" t="s">
-        <v>1353</v>
+        <v>1422</v>
       </c>
       <c r="F1" t="s">
         <v>648</v>
       </c>
       <c r="G1" t="s">
-        <v>1437</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7440,16 +7440,16 @@
         <v>537</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F2" t="s">
         <v>653</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>795</v>
-      </c>
-      <c r="F2" t="s">
-        <v>654</v>
       </c>
       <c r="G2" s="32"/>
     </row>
@@ -7461,16 +7461,16 @@
         <v>538</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1357</v>
+        <v>1330</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G3" s="32"/>
     </row>
@@ -7482,19 +7482,19 @@
         <v>539</v>
       </c>
       <c r="C4" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F4" t="s">
+        <v>653</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>656</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>795</v>
-      </c>
-      <c r="F4" t="s">
-        <v>654</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7505,19 +7505,19 @@
         <v>540</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>1359</v>
+        <v>1332</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7528,16 +7528,16 @@
         <v>541</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>1360</v>
+        <v>1333</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G6" s="32"/>
     </row>
@@ -7549,16 +7549,16 @@
         <v>542</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>1361</v>
+        <v>1334</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G7" s="32"/>
     </row>
@@ -7570,19 +7570,19 @@
         <v>543</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>1362</v>
+        <v>1335</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7593,16 +7593,16 @@
         <v>544</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>1363</v>
+        <v>1336</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G9" s="32"/>
     </row>
@@ -7614,16 +7614,16 @@
         <v>545</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>1364</v>
+        <v>1337</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G10" s="32"/>
     </row>
@@ -7635,19 +7635,19 @@
         <v>546</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7658,19 +7658,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>1365</v>
+        <v>1338</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7681,19 +7681,19 @@
         <v>547</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>1366</v>
+        <v>1339</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7704,16 +7704,16 @@
         <v>548</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>1367</v>
+        <v>1340</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G14" s="32"/>
     </row>
@@ -7725,19 +7725,19 @@
         <v>549</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>1368</v>
+        <v>1341</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7748,19 +7748,19 @@
         <v>550</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>1369</v>
+        <v>1342</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7771,16 +7771,16 @@
         <v>551</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>1370</v>
+        <v>1343</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G17" s="32"/>
     </row>
@@ -7792,16 +7792,16 @@
         <v>552</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>1371</v>
+        <v>1344</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G18" s="32"/>
     </row>
@@ -7813,19 +7813,19 @@
         <v>553</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>1372</v>
+        <v>1345</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F19" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7836,19 +7836,19 @@
         <v>554</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>1373</v>
+        <v>1346</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7865,10 +7865,10 @@
         <v>129</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>795</v>
+        <v>1423</v>
       </c>
       <c r="F21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G21" s="32"/>
     </row>
@@ -7880,19 +7880,19 @@
         <v>563</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>1374</v>
+        <v>1347</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7903,16 +7903,16 @@
         <v>564</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>1375</v>
+        <v>1348</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G23" s="32"/>
     </row>
@@ -7924,19 +7924,19 @@
         <v>565</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>1376</v>
+        <v>1349</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7947,16 +7947,16 @@
         <v>566</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>1377</v>
+        <v>1350</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F25" s="39" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G25" s="32"/>
     </row>
@@ -7968,19 +7968,19 @@
         <v>567</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>1378</v>
+        <v>1351</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F26" s="39" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7991,19 +7991,19 @@
         <v>568</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F27" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8014,19 +8014,19 @@
         <v>569</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>1379</v>
+        <v>1352</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F28" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -8037,16 +8037,16 @@
         <v>570</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>1380</v>
+        <v>1353</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F29" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G29" s="32"/>
     </row>
@@ -8058,19 +8058,19 @@
         <v>571</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>1381</v>
+        <v>1354</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F30" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -8081,19 +8081,19 @@
         <v>572</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>1382</v>
+        <v>1355</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -8104,19 +8104,19 @@
         <v>3</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>1383</v>
+        <v>1356</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8127,16 +8127,16 @@
         <v>573</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>1384</v>
+        <v>1357</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>688</v>
+        <v>1424</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G33" s="32"/>
     </row>
@@ -8151,13 +8151,13 @@
         <v>31</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>1385</v>
+        <v>1358</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>789</v>
+        <v>1425</v>
       </c>
       <c r="F34" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="G34" s="32"/>
     </row>
@@ -8172,13 +8172,13 @@
         <v>32</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>1386</v>
+        <v>1359</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>789</v>
+        <v>1425</v>
       </c>
       <c r="F35" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="G35" s="32"/>
     </row>
@@ -8190,19 +8190,19 @@
         <v>643</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>1387</v>
+        <v>1360</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>789</v>
+        <v>1425</v>
       </c>
       <c r="F36" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8213,19 +8213,19 @@
         <v>90</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>792</v>
+        <v>768</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>1388</v>
+        <v>1361</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>793</v>
+        <v>1426</v>
       </c>
       <c r="F37" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -8239,16 +8239,16 @@
         <v>649</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>1389</v>
+        <v>1362</v>
       </c>
       <c r="E38" s="34" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F38" t="s">
         <v>650</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" s="32" t="s">
         <v>651</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8259,16 +8259,16 @@
         <v>529</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="E39" s="34" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F39" t="s">
         <v>650</v>
-      </c>
-      <c r="F39" t="s">
-        <v>651</v>
       </c>
       <c r="G39" s="32"/>
     </row>
@@ -8280,19 +8280,19 @@
         <v>574</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>1390</v>
+        <v>1363</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>703</v>
+        <v>1428</v>
       </c>
       <c r="F40" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -8303,19 +8303,19 @@
         <v>575</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>1391</v>
+        <v>1364</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>703</v>
+        <v>1428</v>
       </c>
       <c r="F41" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -8326,16 +8326,16 @@
         <v>576</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>1392</v>
+        <v>1365</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>703</v>
+        <v>1428</v>
       </c>
       <c r="F42" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="G42" s="32"/>
     </row>
@@ -8347,19 +8347,19 @@
         <v>577</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>1393</v>
+        <v>1366</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>703</v>
+        <v>1428</v>
       </c>
       <c r="F43" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8370,19 +8370,19 @@
         <v>644</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>1394</v>
+        <v>1367</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>730</v>
+        <v>1429</v>
       </c>
       <c r="F44" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8393,19 +8393,19 @@
         <v>645</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>1395</v>
+        <v>1368</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>730</v>
+        <v>1429</v>
       </c>
       <c r="F45" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -8416,16 +8416,16 @@
         <v>646</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>1396</v>
+        <v>1369</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>730</v>
+        <v>1429</v>
       </c>
       <c r="F46" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="G46" s="32"/>
     </row>
@@ -8437,19 +8437,19 @@
         <v>109</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>1397</v>
+        <v>1370</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>735</v>
+        <v>1430</v>
       </c>
       <c r="F47" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8460,19 +8460,19 @@
         <v>115</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>1398</v>
+        <v>1371</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>738</v>
+        <v>1431</v>
       </c>
       <c r="F48" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -8483,19 +8483,19 @@
         <v>121</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>1399</v>
+        <v>1372</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>666</v>
+        <v>1432</v>
       </c>
       <c r="F49" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8506,19 +8506,19 @@
         <v>122</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>1400</v>
+        <v>1373</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>668</v>
+        <v>1433</v>
       </c>
       <c r="F50" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8529,16 +8529,16 @@
         <v>637</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>1401</v>
+        <v>1374</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>670</v>
+        <v>1434</v>
       </c>
       <c r="F51" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="G51" s="32"/>
     </row>
@@ -8550,16 +8550,16 @@
         <v>556</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>127</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>672</v>
+        <v>1435</v>
       </c>
       <c r="F52" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="G52" s="32"/>
     </row>
@@ -8577,13 +8577,13 @@
         <v>9</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>672</v>
+        <v>1435</v>
       </c>
       <c r="F53" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8600,13 +8600,13 @@
         <v>10</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>672</v>
+        <v>1435</v>
       </c>
       <c r="F54" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8623,13 +8623,13 @@
         <v>11</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>672</v>
+        <v>1435</v>
       </c>
       <c r="F55" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8646,13 +8646,13 @@
         <v>12</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>672</v>
+        <v>1435</v>
       </c>
       <c r="F56" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8669,10 +8669,10 @@
         <v>13</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>672</v>
+        <v>1435</v>
       </c>
       <c r="F57" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="G57" s="32"/>
     </row>
@@ -8684,19 +8684,19 @@
         <v>562</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>672</v>
+        <v>1435</v>
       </c>
       <c r="F58" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -8713,10 +8713,10 @@
         <v>129</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>672</v>
+        <v>1435</v>
       </c>
       <c r="F59" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="G59" s="32"/>
     </row>
@@ -8728,16 +8728,16 @@
         <v>131</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>1402</v>
+        <v>1375</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>674</v>
+        <v>1436</v>
       </c>
       <c r="F60" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="G60" s="32"/>
     </row>
@@ -8749,19 +8749,19 @@
         <v>132</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>1403</v>
+        <v>1376</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>676</v>
+        <v>1437</v>
       </c>
       <c r="F61" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -8772,19 +8772,19 @@
         <v>138</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>678</v>
+        <v>1438</v>
       </c>
       <c r="F62" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -8795,16 +8795,16 @@
         <v>607</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="D63" s="37" t="s">
         <v>143</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F63" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G63" s="32"/>
     </row>
@@ -8816,19 +8816,19 @@
         <v>608</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>1404</v>
+        <v>1377</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F64" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -8839,16 +8839,16 @@
         <v>609</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>1405</v>
+        <v>1378</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F65" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G65" s="32"/>
     </row>
@@ -8860,16 +8860,16 @@
         <v>610</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>1406</v>
+        <v>1379</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F66" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G66" s="32"/>
     </row>
@@ -8881,16 +8881,16 @@
         <v>611</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>1407</v>
+        <v>1380</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F67" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G67" s="32"/>
     </row>
@@ -8902,16 +8902,16 @@
         <v>612</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="D68" s="37" t="s">
         <v>142</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F68" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G68" s="32"/>
     </row>
@@ -8929,10 +8929,10 @@
         <v>30</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F69" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G69" s="32"/>
     </row>
@@ -8944,16 +8944,16 @@
         <v>614</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>1408</v>
+        <v>1381</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F70" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G70" s="32"/>
     </row>
@@ -8965,19 +8965,19 @@
         <v>615</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>1409</v>
+        <v>1382</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F71" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -8988,16 +8988,16 @@
         <v>616</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>1410</v>
+        <v>1383</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F72" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G72" s="32"/>
     </row>
@@ -9009,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>1411</v>
+        <v>1384</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F73" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G73" s="32"/>
     </row>
@@ -9030,16 +9030,16 @@
         <v>617</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>1412</v>
+        <v>1385</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F74" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G74" s="32"/>
     </row>
@@ -9051,16 +9051,16 @@
         <v>618</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="D75" s="37" t="s">
         <v>127</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>680</v>
+        <v>1439</v>
       </c>
       <c r="F75" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="G75" s="32"/>
     </row>
@@ -9072,16 +9072,16 @@
         <v>619</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="D76" s="37" t="s">
         <v>143</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F76" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G76" s="32"/>
     </row>
@@ -9093,19 +9093,19 @@
         <v>620</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>1404</v>
+        <v>1377</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F77" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -9116,16 +9116,16 @@
         <v>621</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>1405</v>
+        <v>1378</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F78" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G78" s="32"/>
     </row>
@@ -9137,19 +9137,19 @@
         <v>622</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>1406</v>
+        <v>1379</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F79" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -9160,16 +9160,16 @@
         <v>623</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>1407</v>
+        <v>1380</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F80" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G80" s="32"/>
     </row>
@@ -9181,16 +9181,16 @@
         <v>624</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="D81" s="37" t="s">
         <v>142</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F81" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G81" s="32"/>
     </row>
@@ -9208,10 +9208,10 @@
         <v>30</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F82" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G82" s="32"/>
     </row>
@@ -9223,16 +9223,16 @@
         <v>626</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>1408</v>
+        <v>1381</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F83" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G83" s="32"/>
     </row>
@@ -9244,16 +9244,16 @@
         <v>627</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>1409</v>
+        <v>1382</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F84" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G84" s="32"/>
     </row>
@@ -9265,16 +9265,16 @@
         <v>628</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>1410</v>
+        <v>1383</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F85" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G85" s="32"/>
     </row>
@@ -9286,19 +9286,19 @@
         <v>7</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="D86" s="37" t="s">
-        <v>1411</v>
+        <v>1384</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F86" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -9309,19 +9309,19 @@
         <v>629</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="D87" s="37" t="s">
-        <v>1412</v>
+        <v>1385</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F87" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -9332,19 +9332,19 @@
         <v>630</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="D88" s="37" t="s">
         <v>127</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>682</v>
+        <v>1440</v>
       </c>
       <c r="F88" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -9355,19 +9355,19 @@
         <v>531</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
       <c r="D89" s="37" t="s">
         <v>143</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>683</v>
+        <v>1441</v>
       </c>
       <c r="F89" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -9378,19 +9378,19 @@
         <v>532</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>683</v>
+        <v>1441</v>
       </c>
       <c r="F90" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -9401,19 +9401,19 @@
         <v>533</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>1413</v>
+        <v>1386</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>683</v>
+        <v>1441</v>
       </c>
       <c r="F91" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -9424,16 +9424,16 @@
         <v>534</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>1406</v>
+        <v>1379</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>683</v>
+        <v>1441</v>
       </c>
       <c r="F92" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="G92" s="32"/>
     </row>
@@ -9445,19 +9445,19 @@
         <v>535</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>1408</v>
+        <v>1381</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>683</v>
+        <v>1441</v>
       </c>
       <c r="F93" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -9468,16 +9468,16 @@
         <v>536</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="D94" s="37" t="s">
-        <v>1410</v>
+        <v>1383</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>683</v>
+        <v>1441</v>
       </c>
       <c r="F94" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="G94" s="32"/>
     </row>
@@ -9489,16 +9489,16 @@
         <v>638</v>
       </c>
       <c r="C95" s="62" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="D95" s="62" t="s">
-        <v>1414</v>
+        <v>1387</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>775</v>
+        <v>1442</v>
       </c>
       <c r="F95" s="39" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="G95" s="32"/>
     </row>
@@ -9510,16 +9510,16 @@
         <v>639</v>
       </c>
       <c r="C96" s="62" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="D96" s="62" t="s">
-        <v>1415</v>
+        <v>1388</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>775</v>
+        <v>1442</v>
       </c>
       <c r="F96" s="39" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="G96" s="32"/>
     </row>
@@ -9531,16 +9531,16 @@
         <v>640</v>
       </c>
       <c r="C97" s="62" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="D97" s="62" t="s">
-        <v>1416</v>
+        <v>1389</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>775</v>
+        <v>1442</v>
       </c>
       <c r="F97" s="39" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="G97" s="32"/>
     </row>
@@ -9552,16 +9552,16 @@
         <v>631</v>
       </c>
       <c r="C98" s="62" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="D98" s="62" t="s">
-        <v>1417</v>
+        <v>1390</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>768</v>
+        <v>1443</v>
       </c>
       <c r="F98" s="39" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="G98" s="32"/>
     </row>
@@ -9573,19 +9573,19 @@
         <v>632</v>
       </c>
       <c r="C99" s="62" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="D99" s="62" t="s">
-        <v>1418</v>
+        <v>1391</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>768</v>
+        <v>1443</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -9596,19 +9596,19 @@
         <v>633</v>
       </c>
       <c r="C100" s="62" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="D100" s="62" t="s">
-        <v>1419</v>
+        <v>1392</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>768</v>
+        <v>1443</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -9619,19 +9619,19 @@
         <v>634</v>
       </c>
       <c r="C101" s="62" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="D101" s="62" t="s">
-        <v>1420</v>
+        <v>1393</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>768</v>
+        <v>1443</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -9642,16 +9642,16 @@
         <v>635</v>
       </c>
       <c r="C102" s="62" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="D102" s="62" t="s">
-        <v>1421</v>
+        <v>1394</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>768</v>
+        <v>1443</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="G102" s="32"/>
     </row>
@@ -9663,16 +9663,16 @@
         <v>636</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>1422</v>
+        <v>1395</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>780</v>
+        <v>1444</v>
       </c>
       <c r="F103" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="G103" s="32"/>
     </row>
@@ -9684,16 +9684,16 @@
         <v>578</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="D104" s="37" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F104" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G104" s="32"/>
     </row>
@@ -9705,16 +9705,16 @@
         <v>579</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="D105" s="37" t="s">
-        <v>1423</v>
+        <v>1396</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F105" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G105" s="32"/>
     </row>
@@ -9726,16 +9726,16 @@
         <v>580</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="D106" s="37" t="s">
-        <v>1424</v>
+        <v>1397</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F106" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G106" s="32"/>
     </row>
@@ -9747,16 +9747,16 @@
         <v>581</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>1425</v>
+        <v>1398</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F107" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G107" s="32"/>
     </row>
@@ -9768,19 +9768,19 @@
         <v>582</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F108" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -9797,13 +9797,13 @@
         <v>14</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F109" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -9814,16 +9814,16 @@
         <v>4</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="D110" s="37" t="s">
-        <v>1426</v>
+        <v>1399</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F110" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G110" s="32"/>
     </row>
@@ -9841,10 +9841,10 @@
         <v>19</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F111" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G111" s="32"/>
     </row>
@@ -9856,16 +9856,16 @@
         <v>585</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="D112" s="37" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F112" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G112" s="32"/>
     </row>
@@ -9877,16 +9877,16 @@
         <v>586</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="D113" s="37" t="s">
-        <v>1427</v>
+        <v>1400</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F113" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G113" s="32"/>
     </row>
@@ -9904,10 +9904,10 @@
         <v>20</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F114" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G114" s="32"/>
     </row>
@@ -9919,19 +9919,19 @@
         <v>588</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>1428</v>
+        <v>1401</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F115" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -9948,13 +9948,13 @@
         <v>129</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F116" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -9965,16 +9965,16 @@
         <v>590</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="D117" s="37" t="s">
-        <v>1429</v>
+        <v>1402</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F117" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G117" s="32"/>
     </row>
@@ -9986,19 +9986,19 @@
         <v>591</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="D118" s="37" t="s">
-        <v>1430</v>
+        <v>1403</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F118" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -10009,16 +10009,16 @@
         <v>592</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D119" s="37" t="s">
-        <v>1431</v>
+        <v>1404</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F119" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G119" s="32"/>
     </row>
@@ -10030,19 +10030,19 @@
         <v>593</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>1432</v>
+        <v>1405</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F120" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -10053,19 +10053,19 @@
         <v>594</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="D121" s="37" t="s">
-        <v>1433</v>
+        <v>1406</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F121" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -10076,16 +10076,16 @@
         <v>595</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="D122" s="37" t="s">
-        <v>1434</v>
+        <v>1407</v>
       </c>
       <c r="E122" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F122" s="36" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G122" s="32"/>
     </row>
@@ -10097,19 +10097,19 @@
         <v>596</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="D123" s="37" t="s">
-        <v>1435</v>
+        <v>1408</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>709</v>
+        <v>1445</v>
       </c>
       <c r="F123" s="36" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -10126,10 +10126,10 @@
         <v>21</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F124" s="36" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G124" s="32"/>
     </row>
@@ -10147,13 +10147,13 @@
         <v>22</v>
       </c>
       <c r="E125" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F125" s="36" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -10170,13 +10170,13 @@
         <v>23</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -10193,10 +10193,10 @@
         <v>24</v>
       </c>
       <c r="E127" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F127" s="34" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G127" s="32"/>
     </row>
@@ -10214,10 +10214,10 @@
         <v>25</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F128" s="34" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G128" s="32"/>
     </row>
@@ -10235,10 +10235,10 @@
         <v>26</v>
       </c>
       <c r="E129" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F129" s="34" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G129" s="32"/>
     </row>
@@ -10256,10 +10256,10 @@
         <v>27</v>
       </c>
       <c r="E130" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F130" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G130" s="32"/>
     </row>
@@ -10277,10 +10277,10 @@
         <v>28</v>
       </c>
       <c r="E131" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F131" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G131" s="32"/>
     </row>
@@ -10298,13 +10298,13 @@
         <v>29</v>
       </c>
       <c r="E132" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F132" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G132" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -10315,16 +10315,16 @@
         <v>5</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="D133" s="37" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="E133" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F133" s="39" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G133" s="32"/>
     </row>
@@ -10342,13 +10342,13 @@
         <v>129</v>
       </c>
       <c r="E134" s="34" t="s">
-        <v>726</v>
+        <v>1446</v>
       </c>
       <c r="F134" s="39" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -10359,19 +10359,19 @@
         <v>197</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="E135" s="34" t="s">
-        <v>787</v>
+        <v>1447</v>
       </c>
       <c r="F135" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -10382,19 +10382,19 @@
         <v>198</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>1436</v>
+        <v>1409</v>
       </c>
       <c r="E136" s="34" t="s">
-        <v>743</v>
+        <v>1448</v>
       </c>
       <c r="F136" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
         <v>530</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>1351</v>
+        <v>1325</v>
       </c>
       <c r="D137" s="51"/>
       <c r="E137" s="53"/>
@@ -10426,7 +10426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB4FD63-622E-4BAD-8CB3-F534750F2B35}">
   <dimension ref="A1:AK322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -10464,7 +10464,7 @@
         <v>228</v>
       </c>
       <c r="G1" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>225</v>
@@ -10479,7 +10479,7 @@
         <v>228</v>
       </c>
       <c r="N1" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>225</v>
@@ -10494,7 +10494,7 @@
         <v>228</v>
       </c>
       <c r="U1" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
       <c r="V1" s="30" t="s">
         <v>225</v>
@@ -10509,7 +10509,7 @@
         <v>228</v>
       </c>
       <c r="AA1" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="AB1" s="30" t="s">
         <v>225</v>
@@ -10524,7 +10524,7 @@
         <v>228</v>
       </c>
       <c r="AG1" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
       <c r="AH1" s="30" t="s">
         <v>225</v>
@@ -10912,20 +10912,20 @@
         <v>201</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="H8" s="40"/>
       <c r="N8" s="2" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -10953,19 +10953,19 @@
         <v>230</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>863</v>
+        <v>837</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>890</v>
+        <v>864</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>931</v>
+        <v>905</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>1033</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -10973,19 +10973,19 @@
         <v>231</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>891</v>
+        <v>865</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>932</v>
+        <v>906</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>1034</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -10993,19 +10993,19 @@
         <v>232</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>865</v>
+        <v>839</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>892</v>
+        <v>866</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>1035</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -11013,17 +11013,17 @@
         <v>233</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="N13" s="29"/>
       <c r="U13" s="2" t="s">
-        <v>893</v>
+        <v>867</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>1036</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -11031,19 +11031,19 @@
         <v>234</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>200</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>1037</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -11051,17 +11051,17 @@
         <v>235</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="U15" s="29"/>
       <c r="AA15" s="2" t="s">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>1038</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -11069,17 +11069,17 @@
         <v>236</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>803</v>
+        <v>777</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>867</v>
+        <v>841</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>200</v>
       </c>
       <c r="AA16" s="29"/>
       <c r="AG16" s="2" t="s">
-        <v>1039</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -11087,35 +11087,35 @@
         <v>237</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>868</v>
+        <v>842</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>200</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>1040</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="G18" s="44"/>
       <c r="N18" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="U18" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>895</v>
-      </c>
       <c r="AA18" s="2" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>1041</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -11126,16 +11126,16 @@
         <v>200</v>
       </c>
       <c r="N19" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>896</v>
-      </c>
       <c r="AA19" s="2" t="s">
-        <v>938</v>
+        <v>912</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>1042</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
@@ -11143,19 +11143,19 @@
         <v>238</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
       <c r="N20" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>897</v>
-      </c>
       <c r="AA20" s="2" t="s">
-        <v>939</v>
+        <v>913</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>1043</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -11163,19 +11163,19 @@
         <v>239</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>806</v>
+        <v>780</v>
       </c>
       <c r="N21" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>898</v>
-      </c>
       <c r="AA21" s="2" t="s">
-        <v>940</v>
+        <v>914</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>1044</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -11183,19 +11183,19 @@
         <v>240</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>807</v>
+        <v>781</v>
       </c>
       <c r="N22" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="U22" s="2" t="s">
-        <v>899</v>
-      </c>
       <c r="AA22" s="2" t="s">
-        <v>941</v>
+        <v>915</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>1045</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -11203,19 +11203,19 @@
         <v>241</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>808</v>
+        <v>782</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="U23" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="U23" s="2" t="s">
-        <v>900</v>
-      </c>
       <c r="AA23" s="2" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>1046</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
@@ -11223,19 +11223,19 @@
         <v>242</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>809</v>
+        <v>783</v>
       </c>
       <c r="N24" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>901</v>
-      </c>
       <c r="AA24" s="2" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>1047</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
@@ -11243,19 +11243,19 @@
         <v>243</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>810</v>
+        <v>784</v>
       </c>
       <c r="N25" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="U25" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="U25" s="2" t="s">
-        <v>902</v>
-      </c>
       <c r="AA25" s="2" t="s">
-        <v>944</v>
+        <v>918</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>1048</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -11263,19 +11263,19 @@
         <v>244</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>811</v>
+        <v>785</v>
       </c>
       <c r="N26" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="U26" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="U26" s="2" t="s">
-        <v>903</v>
-      </c>
       <c r="AA26" s="2" t="s">
-        <v>945</v>
+        <v>919</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>1049</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
@@ -11283,19 +11283,19 @@
         <v>245</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
       <c r="N27" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="U27" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="U27" s="2" t="s">
-        <v>904</v>
-      </c>
       <c r="AA27" s="2" t="s">
-        <v>946</v>
+        <v>920</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>1050</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
@@ -11303,19 +11303,19 @@
         <v>246</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
       <c r="N28" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="U28" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="U28" s="2" t="s">
-        <v>905</v>
-      </c>
       <c r="AA28" s="2" t="s">
-        <v>947</v>
+        <v>921</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>1051</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
@@ -11323,16 +11323,16 @@
         <v>247</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="N29" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="U29" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="U29" s="2" t="s">
-        <v>906</v>
-      </c>
       <c r="AA29" s="2" t="s">
-        <v>948</v>
+        <v>922</v>
       </c>
       <c r="AG29" s="29"/>
     </row>
@@ -11341,16 +11341,16 @@
         <v>248</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="N30" s="46" t="s">
+        <v>855</v>
+      </c>
+      <c r="U30" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="U30" s="2" t="s">
-        <v>907</v>
-      </c>
       <c r="AA30" s="2" t="s">
-        <v>949</v>
+        <v>923</v>
       </c>
       <c r="AG30" s="2" t="s">
         <v>200</v>
@@ -11361,17 +11361,17 @@
         <v>249</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
       <c r="N31" s="29"/>
       <c r="U31" s="2" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>950</v>
+        <v>924</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>1052</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
@@ -11379,19 +11379,19 @@
         <v>250</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>202</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>951</v>
+        <v>925</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>1053</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
@@ -11399,19 +11399,19 @@
         <v>251</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>818</v>
+        <v>792</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>952</v>
+        <v>926</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>1054</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
@@ -11419,19 +11419,19 @@
         <v>252</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>819</v>
+        <v>793</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>911</v>
+        <v>885</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>953</v>
+        <v>927</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>1055</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
@@ -11439,19 +11439,19 @@
         <v>253</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>883</v>
+        <v>857</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>912</v>
+        <v>886</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>954</v>
+        <v>928</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>1056</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
@@ -11459,19 +11459,19 @@
         <v>254</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>955</v>
+        <v>929</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>1057</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
@@ -11479,19 +11479,19 @@
         <v>255</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>914</v>
+        <v>888</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>956</v>
+        <v>930</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>1058</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
@@ -11499,17 +11499,17 @@
         <v>256</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="N38" s="29"/>
       <c r="U38" s="2" t="s">
-        <v>915</v>
+        <v>889</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>957</v>
+        <v>931</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>1059</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
@@ -11517,19 +11517,19 @@
         <v>257</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
       <c r="AA39" s="2" t="s">
-        <v>958</v>
+        <v>932</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>1060</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
@@ -11537,19 +11537,19 @@
         <v>258</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>1061</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
@@ -11557,17 +11557,17 @@
         <v>259</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
       <c r="N41" s="2"/>
       <c r="U41" s="2" t="s">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>960</v>
+        <v>934</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>1062</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
@@ -11575,17 +11575,17 @@
         <v>260</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="N42" s="2"/>
       <c r="U42" s="2" t="s">
-        <v>919</v>
+        <v>893</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>1063</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
@@ -11593,17 +11593,17 @@
         <v>261</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="N43" s="2"/>
       <c r="U43" s="2" t="s">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="AA43" s="2" t="s">
-        <v>962</v>
+        <v>936</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>1064</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
@@ -11611,17 +11611,17 @@
         <v>262</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="N44" s="2"/>
       <c r="U44" s="2" t="s">
-        <v>921</v>
+        <v>895</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>963</v>
+        <v>937</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>1065</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
@@ -11629,17 +11629,17 @@
         <v>263</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
       <c r="N45" s="2"/>
       <c r="U45" s="2" t="s">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>964</v>
+        <v>938</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>1066</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
@@ -11647,17 +11647,17 @@
         <v>264</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>831</v>
+        <v>805</v>
       </c>
       <c r="N46" s="29"/>
       <c r="U46" s="2" t="s">
-        <v>923</v>
+        <v>897</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>965</v>
+        <v>939</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>1067</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
@@ -11665,17 +11665,17 @@
         <v>265</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
       <c r="N47" s="2"/>
       <c r="U47" s="2" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>966</v>
+        <v>940</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>1068</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
@@ -11683,15 +11683,15 @@
         <v>266</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="N48" s="2"/>
       <c r="U48" s="29"/>
       <c r="AA48" s="2" t="s">
-        <v>967</v>
+        <v>941</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>1069</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
@@ -11699,17 +11699,17 @@
         <v>267</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="N49" s="2"/>
       <c r="U49" s="2" t="s">
         <v>202</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>968</v>
+        <v>942</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>1070</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
@@ -11717,17 +11717,17 @@
         <v>268</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="N50" s="2"/>
       <c r="U50" s="2" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>969</v>
+        <v>943</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>1071</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
@@ -11735,17 +11735,17 @@
         <v>269</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="N51" s="2"/>
       <c r="U51" s="2" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>970</v>
+        <v>944</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>1072</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
@@ -11753,17 +11753,17 @@
         <v>270</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="N52" s="2"/>
       <c r="U52" s="2" t="s">
-        <v>926</v>
+        <v>900</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>971</v>
+        <v>945</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>1073</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
@@ -11771,17 +11771,17 @@
         <v>271</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="N53" s="2"/>
       <c r="U53" s="2" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
       <c r="AA53" s="2" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>1074</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
@@ -11789,15 +11789,15 @@
         <v>272</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
       <c r="N54" s="2"/>
       <c r="U54" s="2" t="s">
-        <v>928</v>
+        <v>902</v>
       </c>
       <c r="AA54" s="29"/>
       <c r="AG54" s="2" t="s">
-        <v>1075</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
@@ -11805,7 +11805,7 @@
         <v>273</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
       <c r="N55" s="2"/>
       <c r="U55" s="29"/>
@@ -11813,7 +11813,7 @@
         <v>202</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>1076</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
@@ -11821,17 +11821,17 @@
         <v>274</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="N56" s="2"/>
       <c r="U56" s="2" t="s">
-        <v>929</v>
+        <v>903</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>973</v>
+        <v>947</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>1077</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
@@ -11839,17 +11839,17 @@
         <v>275</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
       <c r="N57" s="2"/>
       <c r="U57" s="2" t="s">
-        <v>930</v>
+        <v>904</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>974</v>
+        <v>948</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>1078</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
@@ -11857,14 +11857,14 @@
         <v>276</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>843</v>
+        <v>817</v>
       </c>
       <c r="N58" s="2"/>
       <c r="AA58" s="2" t="s">
-        <v>975</v>
+        <v>949</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>1079</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
@@ -11872,14 +11872,14 @@
         <v>277</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
       <c r="N59" s="2"/>
       <c r="AA59" s="2" t="s">
-        <v>976</v>
+        <v>950</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>1080</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
@@ -11887,15 +11887,15 @@
         <v>278</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>845</v>
+        <v>819</v>
       </c>
       <c r="N60" s="2"/>
       <c r="U60" s="45"/>
       <c r="AA60" s="2" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>1081</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
@@ -11903,15 +11903,15 @@
         <v>279</v>
       </c>
       <c r="G61" s="26" t="s">
-        <v>846</v>
+        <v>820</v>
       </c>
       <c r="N61" s="2"/>
       <c r="U61" s="2" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
       <c r="AA61" s="29"/>
       <c r="AG61" s="2" t="s">
-        <v>1082</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
@@ -11919,17 +11919,17 @@
         <v>280</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>847</v>
+        <v>821</v>
       </c>
       <c r="N62" s="2"/>
       <c r="U62" s="2" t="s">
         <v>199</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>978</v>
+        <v>952</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>1083</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
@@ -11937,17 +11937,17 @@
         <v>281</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>848</v>
+        <v>822</v>
       </c>
       <c r="N63" s="2"/>
       <c r="U63" s="2" t="s">
-        <v>1311</v>
+        <v>1285</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>1084</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
@@ -11955,14 +11955,14 @@
         <v>282</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>849</v>
+        <v>823</v>
       </c>
       <c r="N64" s="29"/>
       <c r="U64" s="2" t="s">
-        <v>1312</v>
+        <v>1286</v>
       </c>
       <c r="AG64" s="2" t="s">
-        <v>1085</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
@@ -11970,17 +11970,17 @@
         <v>283</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>850</v>
+        <v>824</v>
       </c>
       <c r="N65" s="2"/>
       <c r="U65" s="2" t="s">
-        <v>1313</v>
+        <v>1287</v>
       </c>
       <c r="AA65" s="2" t="s">
-        <v>980</v>
+        <v>954</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>1086</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
@@ -11990,13 +11990,13 @@
       <c r="G66" s="44"/>
       <c r="N66" s="2"/>
       <c r="U66" s="2" t="s">
-        <v>1314</v>
+        <v>1288</v>
       </c>
       <c r="AA66" s="2" t="s">
         <v>199</v>
       </c>
       <c r="AG66" s="2" t="s">
-        <v>1087</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
@@ -12008,13 +12008,13 @@
       </c>
       <c r="N67" s="2"/>
       <c r="U67" s="2" t="s">
-        <v>1315</v>
+        <v>1289</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>981</v>
+        <v>955</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>1088</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
@@ -12022,15 +12022,15 @@
         <v>286</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="N68" s="2"/>
       <c r="U68" s="29"/>
       <c r="AA68" s="2" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="AG68" s="2" t="s">
-        <v>1089</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
@@ -12038,17 +12038,17 @@
         <v>287</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="N69" s="2"/>
       <c r="U69" s="2" t="s">
         <v>200</v>
       </c>
       <c r="AA69" s="2" t="s">
-        <v>983</v>
+        <v>957</v>
       </c>
       <c r="AG69" s="2" t="s">
-        <v>1090</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
@@ -12056,17 +12056,17 @@
         <v>288</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
       <c r="N70" s="2"/>
       <c r="U70" s="2" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
       <c r="AA70" s="2" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>1091</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
@@ -12074,17 +12074,17 @@
         <v>289</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
       <c r="N71" s="29"/>
       <c r="U71" s="2" t="s">
-        <v>1316</v>
+        <v>1290</v>
       </c>
       <c r="AA71" s="2" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="AG71" s="2" t="s">
-        <v>1092</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
@@ -12092,17 +12092,17 @@
         <v>290</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
       <c r="N72" s="2"/>
       <c r="U72" s="2" t="s">
-        <v>1317</v>
+        <v>1291</v>
       </c>
       <c r="AA72" s="2" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="AG72" s="2" t="s">
-        <v>1093</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
@@ -12112,11 +12112,11 @@
       <c r="G73" s="44"/>
       <c r="N73" s="2"/>
       <c r="U73" s="2" t="s">
-        <v>1318</v>
+        <v>1292</v>
       </c>
       <c r="AA73" s="29"/>
       <c r="AG73" s="2" t="s">
-        <v>1094</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
@@ -12124,16 +12124,16 @@
         <v>292</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="U74" s="2" t="s">
-        <v>1319</v>
+        <v>1293</v>
       </c>
       <c r="AA74" s="2" t="s">
         <v>200</v>
       </c>
       <c r="AG74" s="2" t="s">
-        <v>1095</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
@@ -12141,16 +12141,16 @@
         <v>293</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
       <c r="U75" s="2" t="s">
-        <v>1320</v>
+        <v>1294</v>
       </c>
       <c r="AA75" s="2" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="AG75" s="2" t="s">
-        <v>1096</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
@@ -12158,13 +12158,13 @@
         <v>294</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>1321</v>
+        <v>1295</v>
       </c>
       <c r="AA76" s="2" t="s">
-        <v>988</v>
+        <v>962</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>1097</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
@@ -12172,13 +12172,13 @@
         <v>295</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>1322</v>
+        <v>1296</v>
       </c>
       <c r="AA77" s="2" t="s">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="AG77" s="2" t="s">
-        <v>1098</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
@@ -12186,13 +12186,13 @@
         <v>296</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>1323</v>
+        <v>1297</v>
       </c>
       <c r="AA78" s="2" t="s">
-        <v>990</v>
+        <v>964</v>
       </c>
       <c r="AG78" s="2" t="s">
-        <v>1099</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
@@ -12200,13 +12200,13 @@
         <v>297</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>1324</v>
+        <v>1298</v>
       </c>
       <c r="AA79" s="2" t="s">
-        <v>991</v>
+        <v>965</v>
       </c>
       <c r="AG79" s="2" t="s">
-        <v>1100</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
@@ -12214,13 +12214,13 @@
         <v>298</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>1325</v>
+        <v>1299</v>
       </c>
       <c r="AA80" s="2" t="s">
-        <v>992</v>
+        <v>966</v>
       </c>
       <c r="AG80" s="2" t="s">
-        <v>1101</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
@@ -12228,13 +12228,13 @@
         <v>299</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>1326</v>
+        <v>1300</v>
       </c>
       <c r="AA81" s="2" t="s">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="AG81" s="2" t="s">
-        <v>1102</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
@@ -12242,13 +12242,13 @@
         <v>300</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>1327</v>
+        <v>1301</v>
       </c>
       <c r="AA82" s="2" t="s">
-        <v>994</v>
+        <v>968</v>
       </c>
       <c r="AG82" s="2" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
@@ -12256,13 +12256,13 @@
         <v>301</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>1328</v>
+        <v>1302</v>
       </c>
       <c r="AA83" s="2" t="s">
-        <v>995</v>
+        <v>969</v>
       </c>
       <c r="AG83" s="2" t="s">
-        <v>1104</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
@@ -12270,13 +12270,13 @@
         <v>302</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>1329</v>
+        <v>1303</v>
       </c>
       <c r="AA84" s="2" t="s">
-        <v>996</v>
+        <v>970</v>
       </c>
       <c r="AG84" s="2" t="s">
-        <v>1105</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
@@ -12284,13 +12284,13 @@
         <v>303</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>1330</v>
+        <v>1304</v>
       </c>
       <c r="AA85" s="2" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="AG85" s="2" t="s">
-        <v>1106</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
@@ -12298,13 +12298,13 @@
         <v>304</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>1331</v>
+        <v>1305</v>
       </c>
       <c r="AA86" s="2" t="s">
-        <v>998</v>
+        <v>972</v>
       </c>
       <c r="AG86" s="2" t="s">
-        <v>1107</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
@@ -12312,13 +12312,13 @@
         <v>305</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>1332</v>
+        <v>1306</v>
       </c>
       <c r="AA87" s="2" t="s">
-        <v>999</v>
+        <v>973</v>
       </c>
       <c r="AG87" s="2" t="s">
-        <v>1108</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
@@ -12326,13 +12326,13 @@
         <v>306</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>1333</v>
+        <v>1307</v>
       </c>
       <c r="AA88" s="2" t="s">
-        <v>1000</v>
+        <v>974</v>
       </c>
       <c r="AG88" s="2" t="s">
-        <v>1109</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
@@ -12340,13 +12340,13 @@
         <v>307</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>1334</v>
+        <v>1308</v>
       </c>
       <c r="AA89" s="2" t="s">
-        <v>1001</v>
+        <v>975</v>
       </c>
       <c r="AG89" s="2" t="s">
-        <v>1110</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
@@ -12354,13 +12354,13 @@
         <v>308</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>1335</v>
+        <v>1309</v>
       </c>
       <c r="AA90" s="2" t="s">
-        <v>1002</v>
+        <v>976</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>1111</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
@@ -12368,13 +12368,13 @@
         <v>309</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>1336</v>
+        <v>1310</v>
       </c>
       <c r="AA91" s="2" t="s">
-        <v>1003</v>
+        <v>977</v>
       </c>
       <c r="AG91" s="2" t="s">
-        <v>1112</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
@@ -12382,13 +12382,13 @@
         <v>310</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>1337</v>
+        <v>1311</v>
       </c>
       <c r="AA92" s="2" t="s">
-        <v>1004</v>
+        <v>978</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>1113</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
@@ -12396,13 +12396,13 @@
         <v>311</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>1338</v>
+        <v>1312</v>
       </c>
       <c r="AA93" s="2" t="s">
-        <v>1005</v>
+        <v>979</v>
       </c>
       <c r="AG93" s="2" t="s">
-        <v>1114</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
@@ -12410,13 +12410,13 @@
         <v>312</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>1339</v>
+        <v>1313</v>
       </c>
       <c r="AA94" s="2" t="s">
-        <v>1006</v>
+        <v>980</v>
       </c>
       <c r="AG94" s="2" t="s">
-        <v>1115</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
@@ -12424,13 +12424,13 @@
         <v>313</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>1340</v>
+        <v>1314</v>
       </c>
       <c r="AA95" s="2" t="s">
-        <v>1007</v>
+        <v>981</v>
       </c>
       <c r="AG95" s="2" t="s">
-        <v>1116</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
@@ -12438,13 +12438,13 @@
         <v>314</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>1341</v>
+        <v>1315</v>
       </c>
       <c r="AA96" s="2" t="s">
-        <v>1008</v>
+        <v>982</v>
       </c>
       <c r="AG96" s="2" t="s">
-        <v>1117</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
@@ -12452,13 +12452,13 @@
         <v>315</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>1342</v>
+        <v>1316</v>
       </c>
       <c r="AA97" s="2" t="s">
-        <v>1009</v>
+        <v>983</v>
       </c>
       <c r="AG97" s="2" t="s">
-        <v>1118</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
@@ -12466,13 +12466,13 @@
         <v>316</v>
       </c>
       <c r="U98" s="2" t="s">
-        <v>1343</v>
+        <v>1317</v>
       </c>
       <c r="AA98" s="2" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
       <c r="AG98" s="2" t="s">
-        <v>1119</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
@@ -12480,13 +12480,13 @@
         <v>317</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>1344</v>
+        <v>1318</v>
       </c>
       <c r="AA99" s="2" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
       <c r="AG99" s="2" t="s">
-        <v>1120</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
@@ -12495,10 +12495,10 @@
       </c>
       <c r="U100" s="29"/>
       <c r="AA100" s="2" t="s">
-        <v>1012</v>
+        <v>986</v>
       </c>
       <c r="AG100" s="2" t="s">
-        <v>1121</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
@@ -12509,10 +12509,10 @@
         <v>202</v>
       </c>
       <c r="AA101" s="2" t="s">
-        <v>1013</v>
+        <v>987</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>1122</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
@@ -12520,13 +12520,13 @@
         <v>320</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="AA102" s="2" t="s">
-        <v>1014</v>
+        <v>988</v>
       </c>
       <c r="AG102" s="2" t="s">
-        <v>1123</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
@@ -12534,13 +12534,13 @@
         <v>321</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>1345</v>
+        <v>1319</v>
       </c>
       <c r="AA103" s="2" t="s">
-        <v>1015</v>
+        <v>989</v>
       </c>
       <c r="AG103" s="2" t="s">
-        <v>1124</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
@@ -12548,13 +12548,13 @@
         <v>322</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>1346</v>
+        <v>1320</v>
       </c>
       <c r="AA104" s="2" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="AG104" s="2" t="s">
-        <v>1125</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.25">
@@ -12562,13 +12562,13 @@
         <v>323</v>
       </c>
       <c r="U105" s="2" t="s">
-        <v>1347</v>
+        <v>1321</v>
       </c>
       <c r="AA105" s="2" t="s">
-        <v>1017</v>
+        <v>991</v>
       </c>
       <c r="AG105" s="2" t="s">
-        <v>1126</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.25">
@@ -12576,13 +12576,13 @@
         <v>324</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>1348</v>
+        <v>1322</v>
       </c>
       <c r="AA106" s="2" t="s">
-        <v>1018</v>
+        <v>992</v>
       </c>
       <c r="AG106" s="2" t="s">
-        <v>1127</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.25">
@@ -12591,10 +12591,10 @@
       </c>
       <c r="U107" s="29"/>
       <c r="AA107" s="2" t="s">
-        <v>1019</v>
+        <v>993</v>
       </c>
       <c r="AG107" s="2" t="s">
-        <v>1128</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.25">
@@ -12602,13 +12602,13 @@
         <v>326</v>
       </c>
       <c r="U108" s="2" t="s">
-        <v>1349</v>
+        <v>1323</v>
       </c>
       <c r="AA108" s="2" t="s">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="AG108" s="2" t="s">
-        <v>1129</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.25">
@@ -12616,13 +12616,13 @@
         <v>327</v>
       </c>
       <c r="U109" s="2" t="s">
-        <v>1350</v>
+        <v>1324</v>
       </c>
       <c r="AA109" s="2" t="s">
-        <v>1021</v>
+        <v>995</v>
       </c>
       <c r="AG109" s="2" t="s">
-        <v>1130</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.25">
@@ -12630,13 +12630,13 @@
         <v>328</v>
       </c>
       <c r="U110" s="2" t="s">
-        <v>930</v>
+        <v>904</v>
       </c>
       <c r="AA110" s="2" t="s">
-        <v>1022</v>
+        <v>996</v>
       </c>
       <c r="AG110" s="2" t="s">
-        <v>1131</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.25">
@@ -12644,10 +12644,10 @@
         <v>329</v>
       </c>
       <c r="AA111" s="2" t="s">
-        <v>1023</v>
+        <v>997</v>
       </c>
       <c r="AG111" s="2" t="s">
-        <v>1132</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.25">
@@ -12655,10 +12655,10 @@
         <v>330</v>
       </c>
       <c r="AA112" s="2" t="s">
-        <v>1024</v>
+        <v>998</v>
       </c>
       <c r="AG112" s="2" t="s">
-        <v>1133</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.25">
@@ -12666,10 +12666,10 @@
         <v>331</v>
       </c>
       <c r="AA113" s="2" t="s">
-        <v>1025</v>
+        <v>999</v>
       </c>
       <c r="AG113" s="2" t="s">
-        <v>1134</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.25">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="AA114" s="29"/>
       <c r="AG114" s="2" t="s">
-        <v>1135</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.25">
@@ -12689,7 +12689,7 @@
         <v>202</v>
       </c>
       <c r="AG115" s="2" t="s">
-        <v>1136</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.25">
@@ -12697,10 +12697,10 @@
         <v>334</v>
       </c>
       <c r="AA116" s="2" t="s">
-        <v>1026</v>
+        <v>1000</v>
       </c>
       <c r="AG116" s="2" t="s">
-        <v>1137</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.25">
@@ -12708,10 +12708,10 @@
         <v>335</v>
       </c>
       <c r="AA117" s="2" t="s">
-        <v>1027</v>
+        <v>1001</v>
       </c>
       <c r="AG117" s="2" t="s">
-        <v>1138</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.25">
@@ -12719,10 +12719,10 @@
         <v>336</v>
       </c>
       <c r="AA118" s="2" t="s">
-        <v>1028</v>
+        <v>1002</v>
       </c>
       <c r="AG118" s="2" t="s">
-        <v>1139</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.25">
@@ -12730,10 +12730,10 @@
         <v>337</v>
       </c>
       <c r="AA119" s="2" t="s">
-        <v>1029</v>
+        <v>1003</v>
       </c>
       <c r="AG119" s="2" t="s">
-        <v>1140</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.25">
@@ -12741,10 +12741,10 @@
         <v>338</v>
       </c>
       <c r="AA120" s="2" t="s">
-        <v>1030</v>
+        <v>1004</v>
       </c>
       <c r="AG120" s="2" t="s">
-        <v>1141</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.25">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="AA121" s="29"/>
       <c r="AG121" s="2" t="s">
-        <v>1142</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.25">
@@ -12761,10 +12761,10 @@
         <v>340</v>
       </c>
       <c r="AA122" s="2" t="s">
-        <v>1031</v>
+        <v>1005</v>
       </c>
       <c r="AG122" s="2" t="s">
-        <v>1143</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.25">
@@ -12772,10 +12772,10 @@
         <v>341</v>
       </c>
       <c r="AA123" s="2" t="s">
-        <v>1032</v>
+        <v>1006</v>
       </c>
       <c r="AG123" s="2" t="s">
-        <v>1144</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.25">
@@ -12783,13 +12783,13 @@
         <v>342</v>
       </c>
       <c r="AG124" s="2" t="s">
-        <v>1145</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
       <c r="AG125" s="2" t="s">
-        <v>1146</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.25">
@@ -12797,7 +12797,7 @@
         <v>202</v>
       </c>
       <c r="AG126" s="2" t="s">
-        <v>1147</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.25">
@@ -12805,7 +12805,7 @@
         <v>214</v>
       </c>
       <c r="AG127" s="2" t="s">
-        <v>1148</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.25">
@@ -12813,7 +12813,7 @@
         <v>343</v>
       </c>
       <c r="AG128" s="2" t="s">
-        <v>1149</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.25">
@@ -12821,7 +12821,7 @@
         <v>344</v>
       </c>
       <c r="AG129" s="2" t="s">
-        <v>1150</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.25">
@@ -12829,7 +12829,7 @@
         <v>345</v>
       </c>
       <c r="AG130" s="2" t="s">
-        <v>1151</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.25">
@@ -12837,13 +12837,13 @@
         <v>346</v>
       </c>
       <c r="AG131" s="2" t="s">
-        <v>1152</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132" s="29"/>
       <c r="AG132" s="2" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.25">
@@ -12851,7 +12851,7 @@
         <v>222</v>
       </c>
       <c r="AG133" s="2" t="s">
-        <v>1154</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.25">
@@ -12859,12 +12859,12 @@
         <v>223</v>
       </c>
       <c r="AG134" s="2" t="s">
-        <v>1155</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AG135" s="2" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.25">
@@ -12872,7 +12872,7 @@
         <v>347</v>
       </c>
       <c r="AG136" s="2" t="s">
-        <v>1157</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.25">
@@ -12880,7 +12880,7 @@
         <v>348</v>
       </c>
       <c r="AG137" s="2" t="s">
-        <v>1158</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.25">
@@ -12888,12 +12888,12 @@
         <v>349</v>
       </c>
       <c r="AG138" s="2" t="s">
-        <v>1159</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AG139" s="2" t="s">
-        <v>1160</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.25">
@@ -12901,7 +12901,7 @@
         <v>350</v>
       </c>
       <c r="AG140" s="2" t="s">
-        <v>1161</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.25">
@@ -12909,7 +12909,7 @@
         <v>215</v>
       </c>
       <c r="AG141" s="2" t="s">
-        <v>1162</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.25">
@@ -12917,7 +12917,7 @@
         <v>224</v>
       </c>
       <c r="AG142" s="2" t="s">
-        <v>1163</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.25">
@@ -12925,7 +12925,7 @@
         <v>351</v>
       </c>
       <c r="AG143" s="2" t="s">
-        <v>1164</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.25">
@@ -12933,7 +12933,7 @@
         <v>352</v>
       </c>
       <c r="AG144" s="2" t="s">
-        <v>1165</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.25">
@@ -12941,7 +12941,7 @@
         <v>353</v>
       </c>
       <c r="AG145" s="2" t="s">
-        <v>1166</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.25">
@@ -12949,7 +12949,7 @@
         <v>354</v>
       </c>
       <c r="AG146" s="2" t="s">
-        <v>1167</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.25">
@@ -12957,7 +12957,7 @@
         <v>355</v>
       </c>
       <c r="AG147" s="2" t="s">
-        <v>1168</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.25">
@@ -12965,7 +12965,7 @@
         <v>356</v>
       </c>
       <c r="AG148" s="2" t="s">
-        <v>1169</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.25">
@@ -12973,7 +12973,7 @@
         <v>357</v>
       </c>
       <c r="AG149" s="2" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.25">
@@ -12981,7 +12981,7 @@
         <v>358</v>
       </c>
       <c r="AG150" s="2" t="s">
-        <v>1171</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.25">
@@ -12989,7 +12989,7 @@
         <v>359</v>
       </c>
       <c r="AG151" s="2" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.25">
@@ -12997,7 +12997,7 @@
         <v>360</v>
       </c>
       <c r="AG152" s="2" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.25">
@@ -13005,7 +13005,7 @@
         <v>361</v>
       </c>
       <c r="AG153" s="2" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.25">
@@ -13013,7 +13013,7 @@
         <v>362</v>
       </c>
       <c r="AG154" s="2" t="s">
-        <v>1175</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.25">
@@ -13021,7 +13021,7 @@
         <v>363</v>
       </c>
       <c r="AG155" s="2" t="s">
-        <v>1176</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.25">
@@ -13029,7 +13029,7 @@
         <v>364</v>
       </c>
       <c r="AG156" s="2" t="s">
-        <v>1177</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.25">
@@ -13037,7 +13037,7 @@
         <v>365</v>
       </c>
       <c r="AG157" s="2" t="s">
-        <v>1178</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.25">
@@ -13045,7 +13045,7 @@
         <v>366</v>
       </c>
       <c r="AG158" s="2" t="s">
-        <v>1179</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.25">
@@ -13053,7 +13053,7 @@
         <v>367</v>
       </c>
       <c r="AG159" s="2" t="s">
-        <v>1180</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.25">
@@ -13061,7 +13061,7 @@
         <v>368</v>
       </c>
       <c r="AG160" s="2" t="s">
-        <v>1181</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.25">
@@ -13069,7 +13069,7 @@
         <v>369</v>
       </c>
       <c r="AG161" s="2" t="s">
-        <v>1182</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.25">
@@ -13077,7 +13077,7 @@
         <v>370</v>
       </c>
       <c r="AG162" s="2" t="s">
-        <v>1183</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.25">
@@ -13085,7 +13085,7 @@
         <v>371</v>
       </c>
       <c r="AG163" s="2" t="s">
-        <v>1184</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.25">
@@ -13093,7 +13093,7 @@
         <v>372</v>
       </c>
       <c r="AG164" s="2" t="s">
-        <v>1185</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.25">
@@ -13101,7 +13101,7 @@
         <v>373</v>
       </c>
       <c r="AG165" s="2" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.25">
@@ -13109,7 +13109,7 @@
         <v>374</v>
       </c>
       <c r="AG166" s="2" t="s">
-        <v>1187</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.25">
@@ -13117,7 +13117,7 @@
         <v>375</v>
       </c>
       <c r="AG167" s="2" t="s">
-        <v>1188</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.25">
@@ -13125,7 +13125,7 @@
         <v>376</v>
       </c>
       <c r="AG168" s="2" t="s">
-        <v>1189</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.25">
@@ -13133,7 +13133,7 @@
         <v>377</v>
       </c>
       <c r="AG169" s="2" t="s">
-        <v>1190</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="170" spans="1:33" x14ac:dyDescent="0.25">
@@ -13141,7 +13141,7 @@
         <v>378</v>
       </c>
       <c r="AG170" s="2" t="s">
-        <v>1191</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.25">
@@ -13155,7 +13155,7 @@
         <v>380</v>
       </c>
       <c r="AG172" s="2" t="s">
-        <v>1192</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.25">
@@ -13163,7 +13163,7 @@
         <v>381</v>
       </c>
       <c r="AG173" s="2" t="s">
-        <v>1193</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.25">
@@ -13171,7 +13171,7 @@
         <v>382</v>
       </c>
       <c r="AG174" s="2" t="s">
-        <v>1194</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.25">
@@ -13179,7 +13179,7 @@
         <v>383</v>
       </c>
       <c r="AG175" s="2" t="s">
-        <v>1195</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.25">
@@ -13187,7 +13187,7 @@
         <v>384</v>
       </c>
       <c r="AG176" s="2" t="s">
-        <v>1196</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="177" spans="1:33" x14ac:dyDescent="0.25">
@@ -13195,7 +13195,7 @@
         <v>385</v>
       </c>
       <c r="AG177" s="2" t="s">
-        <v>1197</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="178" spans="1:33" x14ac:dyDescent="0.25">
@@ -13203,7 +13203,7 @@
         <v>386</v>
       </c>
       <c r="AG178" s="2" t="s">
-        <v>1198</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="179" spans="1:33" x14ac:dyDescent="0.25">
@@ -13211,7 +13211,7 @@
         <v>387</v>
       </c>
       <c r="AG179" s="2" t="s">
-        <v>1199</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="180" spans="1:33" x14ac:dyDescent="0.25">
@@ -13219,7 +13219,7 @@
         <v>388</v>
       </c>
       <c r="AG180" s="2" t="s">
-        <v>1200</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="181" spans="1:33" x14ac:dyDescent="0.25">
@@ -13227,7 +13227,7 @@
         <v>389</v>
       </c>
       <c r="AG181" s="2" t="s">
-        <v>1201</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="182" spans="1:33" x14ac:dyDescent="0.25">
@@ -13235,7 +13235,7 @@
         <v>390</v>
       </c>
       <c r="AG182" s="2" t="s">
-        <v>1202</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.25">
@@ -13243,7 +13243,7 @@
         <v>391</v>
       </c>
       <c r="AG183" s="2" t="s">
-        <v>1203</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.25">
@@ -13251,7 +13251,7 @@
         <v>392</v>
       </c>
       <c r="AG184" s="2" t="s">
-        <v>1204</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.25">
@@ -13259,7 +13259,7 @@
         <v>393</v>
       </c>
       <c r="AG185" s="2" t="s">
-        <v>1205</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.25">
@@ -13267,7 +13267,7 @@
         <v>394</v>
       </c>
       <c r="AG186" s="2" t="s">
-        <v>1206</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.25">
@@ -13275,7 +13275,7 @@
         <v>395</v>
       </c>
       <c r="AG187" s="2" t="s">
-        <v>1207</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.25">
@@ -13283,7 +13283,7 @@
         <v>396</v>
       </c>
       <c r="AG188" s="2" t="s">
-        <v>1208</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.25">
@@ -13291,7 +13291,7 @@
         <v>397</v>
       </c>
       <c r="AG189" s="2" t="s">
-        <v>1209</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.25">
@@ -13299,7 +13299,7 @@
         <v>398</v>
       </c>
       <c r="AG190" s="2" t="s">
-        <v>1210</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.25">
@@ -13307,7 +13307,7 @@
         <v>399</v>
       </c>
       <c r="AG191" s="2" t="s">
-        <v>1211</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="192" spans="1:33" x14ac:dyDescent="0.25">
@@ -13315,7 +13315,7 @@
         <v>400</v>
       </c>
       <c r="AG192" s="2" t="s">
-        <v>1212</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.25">
@@ -13323,7 +13323,7 @@
         <v>401</v>
       </c>
       <c r="AG193" s="2" t="s">
-        <v>1213</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.25">
@@ -13331,7 +13331,7 @@
         <v>402</v>
       </c>
       <c r="AG194" s="2" t="s">
-        <v>1214</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="195" spans="1:33" x14ac:dyDescent="0.25">
@@ -13339,7 +13339,7 @@
         <v>403</v>
       </c>
       <c r="AG195" s="2" t="s">
-        <v>1215</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="196" spans="1:33" x14ac:dyDescent="0.25">
@@ -13347,7 +13347,7 @@
         <v>404</v>
       </c>
       <c r="AG196" s="2" t="s">
-        <v>1216</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="197" spans="1:33" x14ac:dyDescent="0.25">
@@ -13355,7 +13355,7 @@
         <v>405</v>
       </c>
       <c r="AG197" s="2" t="s">
-        <v>1217</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="198" spans="1:33" x14ac:dyDescent="0.25">
@@ -13363,7 +13363,7 @@
         <v>406</v>
       </c>
       <c r="AG198" s="2" t="s">
-        <v>1218</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="199" spans="1:33" x14ac:dyDescent="0.25">
@@ -13371,7 +13371,7 @@
         <v>407</v>
       </c>
       <c r="AG199" s="2" t="s">
-        <v>1219</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="200" spans="1:33" x14ac:dyDescent="0.25">
@@ -13379,7 +13379,7 @@
         <v>408</v>
       </c>
       <c r="AG200" s="2" t="s">
-        <v>1220</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="201" spans="1:33" x14ac:dyDescent="0.25">
@@ -13387,7 +13387,7 @@
         <v>409</v>
       </c>
       <c r="AG201" s="2" t="s">
-        <v>1221</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="202" spans="1:33" x14ac:dyDescent="0.25">
@@ -13395,7 +13395,7 @@
         <v>410</v>
       </c>
       <c r="AG202" s="2" t="s">
-        <v>1222</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="203" spans="1:33" x14ac:dyDescent="0.25">
@@ -13403,7 +13403,7 @@
         <v>411</v>
       </c>
       <c r="AG203" s="2" t="s">
-        <v>1223</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.25">
@@ -13411,7 +13411,7 @@
         <v>412</v>
       </c>
       <c r="AG204" s="2" t="s">
-        <v>1224</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.25">
@@ -13419,7 +13419,7 @@
         <v>413</v>
       </c>
       <c r="AG205" s="2" t="s">
-        <v>1225</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.25">
@@ -13427,7 +13427,7 @@
         <v>414</v>
       </c>
       <c r="AG206" s="2" t="s">
-        <v>1226</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.25">
@@ -13435,7 +13435,7 @@
         <v>415</v>
       </c>
       <c r="AG207" s="2" t="s">
-        <v>1227</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="208" spans="1:33" x14ac:dyDescent="0.25">
@@ -13443,7 +13443,7 @@
         <v>416</v>
       </c>
       <c r="AG208" s="2" t="s">
-        <v>1228</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="209" spans="1:33" x14ac:dyDescent="0.25">
@@ -13451,7 +13451,7 @@
         <v>417</v>
       </c>
       <c r="AG209" s="2" t="s">
-        <v>1229</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="210" spans="1:33" x14ac:dyDescent="0.25">
@@ -13459,7 +13459,7 @@
         <v>418</v>
       </c>
       <c r="AG210" s="2" t="s">
-        <v>1230</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="211" spans="1:33" x14ac:dyDescent="0.25">
@@ -13467,12 +13467,12 @@
         <v>419</v>
       </c>
       <c r="AG211" s="2" t="s">
-        <v>1231</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="212" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AG212" s="2" t="s">
-        <v>1232</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="213" spans="1:33" x14ac:dyDescent="0.25">
@@ -13480,7 +13480,7 @@
         <v>216</v>
       </c>
       <c r="AG213" s="2" t="s">
-        <v>1233</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="214" spans="1:33" x14ac:dyDescent="0.25">
@@ -13488,7 +13488,7 @@
         <v>420</v>
       </c>
       <c r="AG214" s="2" t="s">
-        <v>1234</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="215" spans="1:33" x14ac:dyDescent="0.25">
@@ -13496,7 +13496,7 @@
         <v>421</v>
       </c>
       <c r="AG215" s="2" t="s">
-        <v>1235</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="216" spans="1:33" x14ac:dyDescent="0.25">
@@ -13504,7 +13504,7 @@
         <v>422</v>
       </c>
       <c r="AG216" s="2" t="s">
-        <v>1236</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="217" spans="1:33" x14ac:dyDescent="0.25">
@@ -13512,7 +13512,7 @@
         <v>423</v>
       </c>
       <c r="AG217" s="2" t="s">
-        <v>1237</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="218" spans="1:33" x14ac:dyDescent="0.25">
@@ -13520,7 +13520,7 @@
         <v>424</v>
       </c>
       <c r="AG218" s="2" t="s">
-        <v>1238</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="219" spans="1:33" x14ac:dyDescent="0.25">
@@ -13528,7 +13528,7 @@
         <v>425</v>
       </c>
       <c r="AG219" s="2" t="s">
-        <v>1239</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="220" spans="1:33" x14ac:dyDescent="0.25">
@@ -13536,7 +13536,7 @@
         <v>426</v>
       </c>
       <c r="AG220" s="2" t="s">
-        <v>1240</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="221" spans="1:33" x14ac:dyDescent="0.25">
@@ -13544,7 +13544,7 @@
         <v>427</v>
       </c>
       <c r="AG221" s="2" t="s">
-        <v>1241</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="222" spans="1:33" x14ac:dyDescent="0.25">
@@ -13552,7 +13552,7 @@
         <v>428</v>
       </c>
       <c r="AG222" s="2" t="s">
-        <v>1242</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="223" spans="1:33" x14ac:dyDescent="0.25">
@@ -13560,7 +13560,7 @@
         <v>429</v>
       </c>
       <c r="AG223" s="2" t="s">
-        <v>1243</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="224" spans="1:33" x14ac:dyDescent="0.25">
@@ -13568,7 +13568,7 @@
         <v>430</v>
       </c>
       <c r="AG224" s="2" t="s">
-        <v>1244</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="225" spans="1:33" x14ac:dyDescent="0.25">
@@ -13576,7 +13576,7 @@
         <v>431</v>
       </c>
       <c r="AG225" s="2" t="s">
-        <v>1245</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="226" spans="1:33" x14ac:dyDescent="0.25">
@@ -13584,7 +13584,7 @@
         <v>432</v>
       </c>
       <c r="AG226" s="2" t="s">
-        <v>1246</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="227" spans="1:33" x14ac:dyDescent="0.25">
@@ -13592,7 +13592,7 @@
         <v>433</v>
       </c>
       <c r="AG227" s="2" t="s">
-        <v>1247</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="228" spans="1:33" x14ac:dyDescent="0.25">
@@ -13600,7 +13600,7 @@
         <v>434</v>
       </c>
       <c r="AG228" s="2" t="s">
-        <v>1248</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="229" spans="1:33" x14ac:dyDescent="0.25">
@@ -13608,7 +13608,7 @@
         <v>435</v>
       </c>
       <c r="AG229" s="2" t="s">
-        <v>1249</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="230" spans="1:33" x14ac:dyDescent="0.25">
@@ -13616,7 +13616,7 @@
         <v>436</v>
       </c>
       <c r="AG230" s="2" t="s">
-        <v>1250</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="231" spans="1:33" x14ac:dyDescent="0.25">
@@ -13624,7 +13624,7 @@
         <v>437</v>
       </c>
       <c r="AG231" s="2" t="s">
-        <v>1251</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="232" spans="1:33" x14ac:dyDescent="0.25">
@@ -13632,7 +13632,7 @@
         <v>438</v>
       </c>
       <c r="AG232" s="2" t="s">
-        <v>1252</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="233" spans="1:33" x14ac:dyDescent="0.25">
@@ -13640,7 +13640,7 @@
         <v>439</v>
       </c>
       <c r="AG233" s="2" t="s">
-        <v>1253</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="234" spans="1:33" x14ac:dyDescent="0.25">
@@ -13648,7 +13648,7 @@
         <v>440</v>
       </c>
       <c r="AG234" s="2" t="s">
-        <v>1254</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="235" spans="1:33" x14ac:dyDescent="0.25">
@@ -13656,7 +13656,7 @@
         <v>441</v>
       </c>
       <c r="AG235" s="2" t="s">
-        <v>1255</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="236" spans="1:33" x14ac:dyDescent="0.25">
@@ -13664,7 +13664,7 @@
         <v>442</v>
       </c>
       <c r="AG236" s="2" t="s">
-        <v>1256</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="237" spans="1:33" x14ac:dyDescent="0.25">
@@ -13672,7 +13672,7 @@
         <v>443</v>
       </c>
       <c r="AG237" s="2" t="s">
-        <v>1257</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="238" spans="1:33" x14ac:dyDescent="0.25">
@@ -13680,7 +13680,7 @@
         <v>444</v>
       </c>
       <c r="AG238" s="2" t="s">
-        <v>1258</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="239" spans="1:33" x14ac:dyDescent="0.25">
@@ -13688,7 +13688,7 @@
         <v>445</v>
       </c>
       <c r="AG239" s="2" t="s">
-        <v>1259</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="240" spans="1:33" x14ac:dyDescent="0.25">
@@ -13696,7 +13696,7 @@
         <v>446</v>
       </c>
       <c r="AG240" s="2" t="s">
-        <v>1260</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="241" spans="1:33" x14ac:dyDescent="0.25">
@@ -13704,7 +13704,7 @@
         <v>447</v>
       </c>
       <c r="AG241" s="2" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="242" spans="1:33" x14ac:dyDescent="0.25">
@@ -13712,7 +13712,7 @@
         <v>448</v>
       </c>
       <c r="AG242" s="2" t="s">
-        <v>1262</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.25">
@@ -13720,7 +13720,7 @@
         <v>449</v>
       </c>
       <c r="AG243" s="2" t="s">
-        <v>1263</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.25">
@@ -13728,7 +13728,7 @@
         <v>450</v>
       </c>
       <c r="AG244" s="2" t="s">
-        <v>1264</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.25">
@@ -13736,7 +13736,7 @@
         <v>451</v>
       </c>
       <c r="AG245" s="2" t="s">
-        <v>1265</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="246" spans="1:33" x14ac:dyDescent="0.25">
@@ -13744,7 +13744,7 @@
         <v>452</v>
       </c>
       <c r="AG246" s="2" t="s">
-        <v>1266</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.25">
@@ -13752,7 +13752,7 @@
         <v>453</v>
       </c>
       <c r="AG247" s="2" t="s">
-        <v>1267</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.25">
@@ -13760,7 +13760,7 @@
         <v>454</v>
       </c>
       <c r="AG248" s="2" t="s">
-        <v>1268</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.25">
@@ -13768,7 +13768,7 @@
         <v>455</v>
       </c>
       <c r="AG249" s="2" t="s">
-        <v>1269</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.25">
@@ -13776,7 +13776,7 @@
         <v>456</v>
       </c>
       <c r="AG250" s="2" t="s">
-        <v>1270</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="251" spans="1:33" x14ac:dyDescent="0.25">
@@ -13784,7 +13784,7 @@
         <v>457</v>
       </c>
       <c r="AG251" s="2" t="s">
-        <v>1271</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="252" spans="1:33" x14ac:dyDescent="0.25">
@@ -13792,7 +13792,7 @@
         <v>458</v>
       </c>
       <c r="AG252" s="2" t="s">
-        <v>1272</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="253" spans="1:33" x14ac:dyDescent="0.25">
@@ -13800,7 +13800,7 @@
         <v>459</v>
       </c>
       <c r="AG253" s="2" t="s">
-        <v>1273</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.25">
@@ -13808,7 +13808,7 @@
         <v>460</v>
       </c>
       <c r="AG254" s="2" t="s">
-        <v>1274</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="255" spans="1:33" x14ac:dyDescent="0.25">
@@ -13816,7 +13816,7 @@
         <v>461</v>
       </c>
       <c r="AG255" s="2" t="s">
-        <v>1275</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="256" spans="1:33" x14ac:dyDescent="0.25">
@@ -13824,7 +13824,7 @@
         <v>462</v>
       </c>
       <c r="AG256" s="2" t="s">
-        <v>1276</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="257" spans="1:33" x14ac:dyDescent="0.25">
@@ -13832,7 +13832,7 @@
         <v>463</v>
       </c>
       <c r="AG257" s="2" t="s">
-        <v>1277</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="258" spans="1:33" x14ac:dyDescent="0.25">
@@ -13840,7 +13840,7 @@
         <v>464</v>
       </c>
       <c r="AG258" s="2" t="s">
-        <v>1278</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="259" spans="1:33" x14ac:dyDescent="0.25">
@@ -13848,7 +13848,7 @@
         <v>465</v>
       </c>
       <c r="AG259" s="2" t="s">
-        <v>1279</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="260" spans="1:33" x14ac:dyDescent="0.25">
@@ -13856,7 +13856,7 @@
         <v>466</v>
       </c>
       <c r="AG260" s="2" t="s">
-        <v>1280</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="261" spans="1:33" x14ac:dyDescent="0.25">
@@ -13864,7 +13864,7 @@
         <v>467</v>
       </c>
       <c r="AG261" s="2" t="s">
-        <v>1281</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="262" spans="1:33" x14ac:dyDescent="0.25">
@@ -13872,7 +13872,7 @@
         <v>468</v>
       </c>
       <c r="AG262" s="2" t="s">
-        <v>1282</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.25">
@@ -13880,7 +13880,7 @@
         <v>469</v>
       </c>
       <c r="AG263" s="2" t="s">
-        <v>1283</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="264" spans="1:33" x14ac:dyDescent="0.25">
@@ -13888,7 +13888,7 @@
         <v>470</v>
       </c>
       <c r="AG264" s="2" t="s">
-        <v>1284</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="265" spans="1:33" x14ac:dyDescent="0.25">
@@ -13896,7 +13896,7 @@
         <v>471</v>
       </c>
       <c r="AG265" s="2" t="s">
-        <v>1285</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="266" spans="1:33" x14ac:dyDescent="0.25">
@@ -13904,7 +13904,7 @@
         <v>472</v>
       </c>
       <c r="AG266" s="2" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="267" spans="1:33" x14ac:dyDescent="0.25">
@@ -13912,7 +13912,7 @@
         <v>473</v>
       </c>
       <c r="AG267" s="2" t="s">
-        <v>1287</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="268" spans="1:33" x14ac:dyDescent="0.25">
@@ -13920,7 +13920,7 @@
         <v>474</v>
       </c>
       <c r="AG268" s="2" t="s">
-        <v>1288</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="269" spans="1:33" x14ac:dyDescent="0.25">
@@ -13928,7 +13928,7 @@
         <v>475</v>
       </c>
       <c r="AG269" s="2" t="s">
-        <v>1289</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="270" spans="1:33" x14ac:dyDescent="0.25">
@@ -13936,7 +13936,7 @@
         <v>476</v>
       </c>
       <c r="AG270" s="2" t="s">
-        <v>1290</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="271" spans="1:33" x14ac:dyDescent="0.25">
@@ -13944,7 +13944,7 @@
         <v>477</v>
       </c>
       <c r="AG271" s="2" t="s">
-        <v>1291</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="272" spans="1:33" x14ac:dyDescent="0.25">
@@ -13952,7 +13952,7 @@
         <v>478</v>
       </c>
       <c r="AG272" s="2" t="s">
-        <v>1292</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="273" spans="1:33" x14ac:dyDescent="0.25">
@@ -13960,7 +13960,7 @@
         <v>479</v>
       </c>
       <c r="AG273" s="2" t="s">
-        <v>1293</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="274" spans="1:33" x14ac:dyDescent="0.25">
@@ -13968,7 +13968,7 @@
         <v>480</v>
       </c>
       <c r="AG274" s="2" t="s">
-        <v>1294</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="275" spans="1:33" x14ac:dyDescent="0.25">
@@ -13976,7 +13976,7 @@
         <v>481</v>
       </c>
       <c r="AG275" s="2" t="s">
-        <v>1295</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="276" spans="1:33" x14ac:dyDescent="0.25">
@@ -13984,7 +13984,7 @@
         <v>482</v>
       </c>
       <c r="AG276" s="2" t="s">
-        <v>1296</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="277" spans="1:33" x14ac:dyDescent="0.25">
@@ -13992,7 +13992,7 @@
         <v>483</v>
       </c>
       <c r="AG277" s="2" t="s">
-        <v>1297</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="278" spans="1:33" x14ac:dyDescent="0.25">
@@ -14000,7 +14000,7 @@
         <v>484</v>
       </c>
       <c r="AG278" s="2" t="s">
-        <v>1298</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="279" spans="1:33" x14ac:dyDescent="0.25">
@@ -14008,7 +14008,7 @@
         <v>485</v>
       </c>
       <c r="AG279" s="2" t="s">
-        <v>1299</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="280" spans="1:33" x14ac:dyDescent="0.25">
@@ -14016,7 +14016,7 @@
         <v>486</v>
       </c>
       <c r="AG280" s="2" t="s">
-        <v>1300</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="281" spans="1:33" x14ac:dyDescent="0.25">
@@ -14024,7 +14024,7 @@
         <v>487</v>
       </c>
       <c r="AG281" s="2" t="s">
-        <v>1301</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="282" spans="1:33" x14ac:dyDescent="0.25">
@@ -14032,7 +14032,7 @@
         <v>488</v>
       </c>
       <c r="AG282" s="2" t="s">
-        <v>1302</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="283" spans="1:33" x14ac:dyDescent="0.25">
@@ -14040,7 +14040,7 @@
         <v>489</v>
       </c>
       <c r="AG283" s="2" t="s">
-        <v>1303</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="284" spans="1:33" x14ac:dyDescent="0.25">
@@ -14048,7 +14048,7 @@
         <v>490</v>
       </c>
       <c r="AG284" s="2" t="s">
-        <v>1304</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="285" spans="1:33" x14ac:dyDescent="0.25">
@@ -14056,7 +14056,7 @@
         <v>491</v>
       </c>
       <c r="AG285" s="2" t="s">
-        <v>1305</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="286" spans="1:33" x14ac:dyDescent="0.25">
@@ -14064,7 +14064,7 @@
         <v>492</v>
       </c>
       <c r="AG286" s="2" t="s">
-        <v>1306</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="287" spans="1:33" x14ac:dyDescent="0.25">
@@ -14072,7 +14072,7 @@
         <v>493</v>
       </c>
       <c r="AG287" s="2" t="s">
-        <v>1307</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="288" spans="1:33" x14ac:dyDescent="0.25">
@@ -14080,7 +14080,7 @@
         <v>494</v>
       </c>
       <c r="AG288" s="2" t="s">
-        <v>1308</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="289" spans="1:33" x14ac:dyDescent="0.25">
@@ -14094,7 +14094,7 @@
         <v>496</v>
       </c>
       <c r="AG290" s="2" t="s">
-        <v>1309</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="291" spans="1:33" x14ac:dyDescent="0.25">
@@ -14102,7 +14102,7 @@
         <v>497</v>
       </c>
       <c r="AG291" s="2" t="s">
-        <v>1310</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="292" spans="1:33" x14ac:dyDescent="0.25">
@@ -14286,7 +14286,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1439</v>
+        <v>1412</v>
       </c>
       <c r="B1" t="s">
         <v>63</v>
@@ -14304,7 +14304,7 @@
         <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -14621,7 +14621,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1440</v>
+        <v>1413</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>63</v>
@@ -14639,7 +14639,7 @@
         <v>59</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -15142,12 +15142,12 @@
         <v>59</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>1441</v>
+        <v>1414</v>
       </c>
       <c r="B39">
         <v>2.2222220000000001E-2</v>
@@ -15171,7 +15171,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1442</v>
+        <v>1415</v>
       </c>
       <c r="B40">
         <v>4.5714289999999998E-2</v>
@@ -15195,7 +15195,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>1443</v>
+        <v>1416</v>
       </c>
       <c r="B41">
         <v>8.5714289999999999E-2</v>
@@ -15237,7 +15237,7 @@
         <v>59</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -15380,7 +15380,7 @@
         <v>59</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -15523,7 +15523,7 @@
         <v>59</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -15666,7 +15666,7 @@
         <v>59</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -15809,7 +15809,7 @@
         <v>59</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -15928,7 +15928,7 @@
         <v>59</v>
       </c>
       <c r="G77" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -16287,12 +16287,12 @@
         <v>59</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1444</v>
+        <v>1417</v>
       </c>
       <c r="B94">
         <v>2.459016E-2</v>
@@ -16316,7 +16316,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1445</v>
+        <v>1418</v>
       </c>
       <c r="B95">
         <v>7.8947370000000003E-2</v>
@@ -16364,7 +16364,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1446</v>
+        <v>1419</v>
       </c>
       <c r="B97">
         <v>8.8888889999999998E-2</v>
@@ -16406,7 +16406,7 @@
         <v>59</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -16525,7 +16525,7 @@
         <v>59</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -16668,7 +16668,7 @@
         <v>59</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -16811,7 +16811,7 @@
         <v>59</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -16954,7 +16954,7 @@
         <v>59</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -17097,7 +17097,7 @@
         <v>59</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -17216,7 +17216,7 @@
         <v>59</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -17431,7 +17431,7 @@
         <v>59</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -17574,7 +17574,7 @@
         <v>59</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -17717,7 +17717,7 @@
         <v>59</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -17860,7 +17860,7 @@
         <v>59</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -18219,7 +18219,7 @@
         <v>59</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -18578,7 +18578,7 @@
         <v>59</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -18727,7 +18727,7 @@
         <v>59</v>
       </c>
       <c r="G210" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -18882,7 +18882,7 @@
         <v>59</v>
       </c>
       <c r="G218" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -19037,7 +19037,7 @@
         <v>59</v>
       </c>
       <c r="G226" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -19192,7 +19192,7 @@
         <v>59</v>
       </c>
       <c r="G234" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -19347,7 +19347,7 @@
         <v>59</v>
       </c>
       <c r="G242" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -19490,7 +19490,7 @@
         <v>59</v>
       </c>
       <c r="G249" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -19585,12 +19585,12 @@
         <v>59</v>
       </c>
       <c r="G255" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="20" t="s">
-        <v>1447</v>
+        <v>1420</v>
       </c>
       <c r="B256">
         <v>4.4444440000000002E-2</v>
@@ -19731,7 +19731,7 @@
         <v>59</v>
       </c>
       <c r="G263" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -20162,7 +20162,7 @@
         <v>59</v>
       </c>
       <c r="G282" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -20377,7 +20377,7 @@
         <v>59</v>
       </c>
       <c r="G292" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -20649,7 +20649,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1448</v>
+        <v>1421</v>
       </c>
       <c r="B306" t="s">
         <v>63</v>
@@ -20667,7 +20667,7 @@
         <v>59</v>
       </c>
       <c r="G306" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -21050,7 +21050,7 @@
         <v>59</v>
       </c>
       <c r="G323" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -21193,7 +21193,7 @@
         <v>59</v>
       </c>
       <c r="G330" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -21336,7 +21336,7 @@
         <v>59</v>
       </c>
       <c r="G337" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -21513,7 +21513,7 @@
         <v>59</v>
       </c>
       <c r="G347" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -21666,7 +21666,7 @@
         <v>59</v>
       </c>
       <c r="G355" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -21819,7 +21819,7 @@
         <v>59</v>
       </c>
       <c r="G363" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -21972,7 +21972,7 @@
         <v>59</v>
       </c>
       <c r="G371" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -22131,7 +22131,7 @@
         <v>59</v>
       </c>
       <c r="G379" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -22284,7 +22284,7 @@
         <v>59</v>
       </c>
       <c r="G387" s="23" t="s">
-        <v>1438</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
